--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>御剑决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剑气凌霄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,6 +555,178 @@
   </si>
   <si>
     <t>造成X点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑心通明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑伏魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成27点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成x点伤害，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑意通玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师符法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌3，本回合不能再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬天穿云剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御剑行云诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑炁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云体风身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心如止水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑宗·无理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，无视护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点敏捷，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除所有负面状态，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·无招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·无危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点防御，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，易伤1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE攻击5x费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗，获得一张随机剑修牌，该牌在本回合为0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得飞行状态1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -975,6 +1143,30 @@
         <v>126</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
@@ -1046,7 +1238,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1850,34 +2042,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D27"/>
+  <dimension ref="A3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="K13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="K14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1885,93 +2284,105 @@
         <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="22" spans="1:14">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="B23" t="s">
         <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="B24" t="s">
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="B26" t="s">
         <v>125</v>
       </c>
@@ -1979,17 +2390,6 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" t="s">
         <v>122</v>
       </c>
     </row>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
@@ -12,7 +12,7 @@
     <sheet name="战士参考" sheetId="4" r:id="rId3"/>
     <sheet name="剑修" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -686,55 +686,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获得8点防御，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，易伤1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE攻击5x费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗，获得一张随机剑修牌，该牌在本回合为0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得飞行状态1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>术宗·无危</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点防御，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害，易伤1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE攻击5x费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗，获得一张随机剑修牌，该牌在本回合为0费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续3回合，每回合额外获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得飞行状态1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +810,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -856,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,9 +896,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,6 +931,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,24 +1107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>139</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>161</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1178,16 +1188,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1234,14 +1244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
@@ -1251,7 +1261,7 @@
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1609,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +1694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P17" t="s">
         <v>93</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>50</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -1855,7 +1865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -1917,7 +1927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1958,7 +1968,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>72</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -2037,18 +2047,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -2057,7 +2068,7 @@
     <col min="14" max="14" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2065,14 +2076,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D4" t="s">
@@ -2091,18 +2102,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
         <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
       </c>
       <c r="K5" t="s">
         <v>147</v>
@@ -2117,7 +2128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>147</v>
       </c>
@@ -2128,10 +2139,10 @@
         <v>151</v>
       </c>
       <c r="N6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>162</v>
       </c>
@@ -2145,7 +2156,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -2162,14 +2173,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D9" t="s">
@@ -2188,7 +2199,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -2225,7 +2236,7 @@
         <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K11" t="s">
         <v>147</v>
@@ -2237,20 +2248,20 @@
         <v>155</v>
       </c>
       <c r="N11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K13" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s">
         <v>143</v>
@@ -2259,10 +2270,10 @@
         <v>154</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2276,7 +2287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2290,7 +2301,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -2304,10 +2315,10 @@
         <v>115</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -2330,26 +2341,26 @@
         <v>167</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>124</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>124</v>
       </c>
@@ -2371,7 +2382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>125</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>125</v>
       </c>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="219">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,7 +726,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>X费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前的幻剑数翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽两张牌，获得4点护甲，获得2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>术宗·无危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·血祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲值翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·加固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命降至1点，将损失的生命转换成等量的护甲。下回合开始前，将最多扣除损失生命的护甲值，恢复等量的生命（如果没有下回合，则不回复血量！！可配合回复加强等遗物特效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得35点护甲，所有技能牌在本回合的费用+2，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌打出时，改为消耗等量的幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予指定敌人3层DEBUFF，拥有该DEBUFF的敌人失去生命时，
+角色获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一种DEBUFF，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡费流（需要引入固定卡牌费用的机制）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +939,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -794,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +968,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2053,16 +2231,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N26"/>
+  <dimension ref="A3:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="11" max="11" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" customWidth="1"/>
@@ -2110,7 +2289,7 @@
         <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
         <v>168</v>
@@ -2129,6 +2308,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
       <c r="K6" t="s">
         <v>147</v>
       </c>
@@ -2143,6 +2334,15 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
       <c r="K7" t="s">
         <v>162</v>
       </c>
@@ -2157,8 +2357,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
       </c>
       <c r="K8" t="s">
         <v>147</v>
@@ -2174,20 +2380,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
         <v>137</v>
@@ -2200,18 +2394,6 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>140</v>
-      </c>
       <c r="K10" t="s">
         <v>147</v>
       </c>
@@ -2219,192 +2401,407 @@
         <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>147</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
         <v>137</v>
       </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="K13" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N14" t="s">
-        <v>172</v>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
+      <c r="A18" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
         <v>143</v>
       </c>
       <c r="M18" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" t="s">
         <v>167</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K30" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" t="s">
+        <v>199</v>
+      </c>
+      <c r="N30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
         <v>124</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C32" t="s">
         <v>175</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
         <v>124</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C34" t="s">
         <v>131</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" t="s">
         <v>130</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D36" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K25:N25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -546,18 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子母剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害x2，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害，获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,6 +875,18 @@
   </si>
   <si>
     <t>卡费流（需要引入固定卡牌费用的机制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害x2，获得2把幻剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,13 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1336,7 +1336,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2233,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2252,131 +2252,131 @@
         <v>127</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
         <v>141</v>
       </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" t="s">
-        <v>144</v>
-      </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
         <v>142</v>
-      </c>
-      <c r="N4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2384,27 +2384,27 @@
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2414,49 +2414,49 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2464,16 +2464,16 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2490,13 +2490,13 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2527,7 +2527,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2535,7 +2535,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2544,114 +2544,114 @@
         <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>196</v>
+        <v>181</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K25" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N27" t="s">
         <v>198</v>
-      </c>
-      <c r="N27" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s">
         <v>116</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -2666,11 +2666,11 @@
       <c r="B32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
-        <v>175</v>
+      <c r="C32" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2680,16 +2680,16 @@
       <c r="B33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
-        <v>133</v>
+      <c r="C33" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -2734,67 +2734,67 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
         <v>185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="平衡" sheetId="1" r:id="rId1"/>
     <sheet name="通用" sheetId="3" r:id="rId2"/>
     <sheet name="战士参考" sheetId="4" r:id="rId3"/>
     <sheet name="剑修" sheetId="2" r:id="rId4"/>
+    <sheet name="符师" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="222">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,14 +888,25 @@
   </si>
   <si>
     <t>造成X点伤害x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桫椤灵符</t>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,6 +930,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -960,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +998,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,7 +1063,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,10 +1095,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,7 +1129,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1285,24 +1304,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>136</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>158</v>
       </c>
@@ -1350,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1366,16 +1385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1422,14 +1441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
@@ -1439,7 +1458,7 @@
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1517,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1651,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1797,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="P17" t="s">
         <v>93</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1925,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1950,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="B21" t="s">
         <v>48</v>
       </c>
@@ -1975,7 +1994,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>50</v>
       </c>
@@ -2000,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -2061,7 +2080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -2086,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -2105,7 +2124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -2124,7 +2143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2165,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -2165,7 +2184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -2184,7 +2203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -2230,14 +2249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -2247,7 +2266,7 @@
     <col min="14" max="14" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2255,7 +2274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -2281,7 +2300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2307,7 +2326,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -2333,7 +2352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -2356,7 +2375,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -2379,7 +2398,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="K9" t="s">
         <v>77</v>
       </c>
@@ -2393,7 +2412,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="K10" t="s">
         <v>144</v>
       </c>
@@ -2407,12 +2426,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -2426,7 +2445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2440,7 +2459,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -2454,12 +2473,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="K17" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
@@ -2476,7 +2495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2499,7 +2518,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2513,7 +2532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -2530,7 +2549,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -2570,7 +2589,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="49.5" customHeight="1">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -2588,7 +2607,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="K25" s="6" t="s">
         <v>215</v>
       </c>
@@ -2596,7 +2615,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="K26" t="s">
         <v>144</v>
       </c>
@@ -2610,7 +2629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="K27" t="s">
         <v>189</v>
       </c>
@@ -2621,7 +2640,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="K28" t="s">
         <v>200</v>
       </c>
@@ -2632,7 +2651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="K29" t="s">
         <v>209</v>
       </c>
@@ -2643,7 +2662,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="K30" t="s">
         <v>189</v>
       </c>
@@ -2654,12 +2673,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2673,7 +2692,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2687,7 +2706,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -2701,7 +2720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -2729,7 +2748,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -2743,7 +2762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -2757,7 +2776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>197</v>
       </c>
@@ -2768,7 +2787,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -2779,7 +2798,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="36" customHeight="1">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -2806,4 +2825,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15">
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
@@ -12,13 +12,14 @@
     <sheet name="战士参考" sheetId="4" r:id="rId3"/>
     <sheet name="剑修" sheetId="2" r:id="rId4"/>
     <sheet name="符师" sheetId="5" r:id="rId5"/>
+    <sheet name="未分类卡池" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="230">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑宗·无理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无视护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气宗·无招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,14 +787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,10 +800,6 @@
   </si>
   <si>
     <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,62 +832,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一种DEBUFF，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桫椤灵符</t>
+  </si>
+  <si>
     <t>3费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡费流（需要引入固定卡牌费用的机制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑宗·无理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每有一种DEBUFF，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡费流（需要引入固定卡牌费用的机制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害，获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子母剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害x2，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桫椤灵符</t>
+    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
+    <t>镜像流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制敌方的行为，化为0费的卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌越多，卡牌威力越大，或者卡牌费用越低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨打流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有很强的抗击打能力，但是会损失开局的先手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看怪物下几个回合的行动，并任意调整行动顺序的流派</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1024,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -998,9 +1034,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,9 +1128,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,6 +1163,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1304,24 +1339,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -1353,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>136</v>
       </c>
@@ -1361,15 +1396,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1385,16 +1420,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1441,14 +1476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
@@ -1458,7 +1493,7 @@
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1536,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1592,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1617,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1651,7 +1686,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1791,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P17" t="s">
         <v>93</v>
       </c>
@@ -1899,7 +1934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1927,7 +1962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1944,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>48</v>
       </c>
@@ -1994,7 +2029,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>50</v>
       </c>
@@ -2019,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -2062,7 +2097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -2080,7 +2115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2165,7 +2200,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -2184,7 +2219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>72</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -2249,14 +2284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -2266,7 +2301,7 @@
     <col min="14" max="14" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2274,7 +2309,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2308,10 +2343,10 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
         <v>144</v>
@@ -2326,18 +2361,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
         <v>144</v>
@@ -2349,21 +2384,21 @@
         <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L7" t="s">
         <v>140</v>
@@ -2372,18 +2407,18 @@
         <v>153</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K8" t="s">
         <v>144</v>
@@ -2395,10 +2430,10 @@
         <v>154</v>
       </c>
       <c r="N8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
         <v>77</v>
       </c>
@@ -2409,10 +2444,10 @@
         <v>156</v>
       </c>
       <c r="N9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>144</v>
       </c>
@@ -2423,15 +2458,15 @@
         <v>152</v>
       </c>
       <c r="N10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2459,7 +2494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -2470,20 +2505,20 @@
         <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
         <v>140</v>
@@ -2492,10 +2527,10 @@
         <v>151</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2509,16 +2544,16 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2532,7 +2567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -2546,15 +2581,15 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2569,116 +2604,50 @@
         <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" t="s">
         <v>189</v>
       </c>
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="K25" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="K26" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" t="s">
-        <v>196</v>
-      </c>
-      <c r="M26" t="s">
-        <v>157</v>
-      </c>
-      <c r="N26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="K27" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" t="s">
-        <v>195</v>
-      </c>
-      <c r="N27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="K28" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="K29" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="K30" t="s">
-        <v>189</v>
-      </c>
-      <c r="L30" t="s">
-        <v>196</v>
-      </c>
-      <c r="N30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2686,13 +2655,13 @@
         <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2700,15 +2669,15 @@
         <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
@@ -2720,9 +2689,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -2734,9 +2703,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -2748,78 +2717,77 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>111</v>
       </c>
       <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
         <v>178</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s">
         <v>180</v>
       </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" t="s">
-        <v>182</v>
-      </c>
       <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
         <v>183</v>
       </c>
-      <c r="D38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>197</v>
       </c>
-      <c r="B39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="36" customHeight="1">
-      <c r="A41" t="s">
-        <v>204</v>
-      </c>
       <c r="B41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K25:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2828,29 +2796,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15">
+    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2858,4 +2826,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="平衡" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="符师" sheetId="5" r:id="rId5"/>
     <sheet name="未分类卡池" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -540,14 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无定剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,6 +924,14 @@
   </si>
   <si>
     <t>可以查看怪物下几个回合的行动，并任意调整行动顺序的流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无定剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1096,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1131,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2306,131 +2306,131 @@
         <v>127</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s">
         <v>138</v>
       </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" t="s">
         <v>140</v>
-      </c>
-      <c r="M4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2438,27 +2438,27 @@
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2468,49 +2468,49 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2518,16 +2518,16 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2544,13 +2544,13 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2581,7 +2581,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2589,7 +2589,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2598,44 +2598,44 @@
         <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
         <v>187</v>
-      </c>
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2655,10 +2655,10 @@
         <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2669,29 +2669,29 @@
         <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
-        <v>131</v>
+      <c r="C34" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -2722,60 +2722,60 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
         <v>176</v>
       </c>
-      <c r="C37" t="s">
-        <v>178</v>
-      </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
         <v>181</v>
-      </c>
-      <c r="D38" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
         <v>193</v>
-      </c>
-      <c r="B39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2799,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2807,18 +2807,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2840,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2851,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
         <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
@@ -2868,29 +2868,29 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
         <v>218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
@@ -2901,47 +2901,47 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
@@ -14,7 +14,7 @@
     <sheet name="符师" sheetId="5" r:id="rId5"/>
     <sheet name="未分类卡池" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把召唤的剑化为多重护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幻剑流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,6 +928,10 @@
   </si>
   <si>
     <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为多重护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1096,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1131,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2303,134 +2303,134 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>139</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" t="s">
         <v>156</v>
-      </c>
-      <c r="L7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2438,79 +2438,79 @@
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
         <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2518,16 +2518,16 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2544,13 +2544,13 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2581,7 +2581,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2589,7 +2589,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2598,44 +2598,44 @@
         <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -2652,13 +2652,13 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2666,38 +2666,38 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" t="s">
         <v>207</v>
-      </c>
-      <c r="D33" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
         <v>228</v>
-      </c>
-      <c r="D34" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -2722,60 +2722,60 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
         <v>180</v>
-      </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
         <v>195</v>
-      </c>
-      <c r="B40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
         <v>197</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2807,18 +2807,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2840,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2851,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
         <v>213</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>214</v>
-      </c>
-      <c r="E3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
@@ -2868,29 +2868,29 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>217</v>
-      </c>
-      <c r="E5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
@@ -2901,47 +2901,47 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -552,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得1费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑灵通虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天罡正气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成10点伤害，虚无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,10 +657,6 @@
   </si>
   <si>
     <t>造成6点伤害，易伤1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE攻击5x费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -932,6 +916,22 @@
   </si>
   <si>
     <t>把召唤的剑化为多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE攻击5x费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费，消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2311,126 +2311,126 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" t="s">
         <v>138</v>
-      </c>
-      <c r="L4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" t="s">
         <v>141</v>
-      </c>
-      <c r="L5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L6" t="s">
         <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L8" t="s">
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2441,24 +2441,24 @@
         <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
         <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2468,49 +2468,49 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="s">
-        <v>143</v>
+      <c r="C14" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2518,16 +2518,16 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2544,13 +2544,13 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2581,7 +2581,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2589,7 +2589,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2598,44 +2598,44 @@
         <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2655,10 +2655,10 @@
         <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2669,29 +2669,29 @@
         <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
@@ -2714,7 +2714,7 @@
         <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -2722,60 +2722,60 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2840,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2851,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
@@ -2868,29 +2868,29 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
@@ -2901,47 +2901,47 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="237">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -640,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气宗·无招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得8点防御，抽一张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,10 +649,6 @@
   </si>
   <si>
     <t>DEBUFF能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害，易伤1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -932,6 +924,42 @@
   </si>
   <si>
     <t>获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖血流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将血量变化为各种能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·无招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，目标获得易伤1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七伤剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成35点伤害，自身虚弱1回合，脆弱1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2288,7 +2316,7 @@
   <dimension ref="A3:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2343,10 +2371,10 @@
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
         <v>139</v>
@@ -2355,7 +2383,7 @@
         <v>136</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N5" t="s">
         <v>141</v>
@@ -2363,16 +2391,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K6" t="s">
         <v>139</v>
@@ -2384,18 +2412,18 @@
         <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K7" t="s">
         <v>152</v>
@@ -2412,13 +2440,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K8" t="s">
         <v>139</v>
@@ -2458,7 +2486,7 @@
         <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2488,10 +2516,10 @@
         <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -2505,12 +2533,12 @@
         <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2518,7 +2546,7 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
         <v>136</v>
@@ -2527,7 +2555,7 @@
         <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2544,13 +2572,13 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2581,7 +2609,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2589,7 +2617,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2598,44 +2626,56 @@
         <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M22" t="s">
-        <v>156</v>
+        <v>231</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" t="s">
         <v>180</v>
       </c>
-      <c r="B23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" t="s">
-        <v>182</v>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2655,10 +2695,10 @@
         <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2669,29 +2709,29 @@
         <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -2705,7 +2745,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
@@ -2714,7 +2754,7 @@
         <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -2722,60 +2762,60 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
         <v>169</v>
       </c>
-      <c r="C37" t="s">
-        <v>171</v>
-      </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" t="s">
         <v>174</v>
-      </c>
-      <c r="D38" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
         <v>186</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2812,13 +2852,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2830,17 +2870,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2851,13 +2891,13 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
         <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
@@ -2868,29 +2908,29 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
         <v>211</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
@@ -2901,47 +2941,57 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="平衡" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="239">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,14 @@
   </si>
   <si>
     <t>造成35点伤害，自身虚弱1回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（全局或者单场战斗）使用指定卡牌到一定次数，触发特定的效果或者事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2315,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2870,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2992,6 +3000,16 @@
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="平衡" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="245">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,6 +968,30 @@
   </si>
   <si>
     <t>（全局或者单场战斗）使用指定卡牌到一定次数，触发特定的效果或者事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌使用后，不会放入弃牌堆，而是立即回到手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行和遁地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行可以参考杀戮的机制（受伤害减半，一定次数后落地并晕眩）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遁地，不受AOE伤害攻击？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气剑合一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1403,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2323,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2810,6 +2834,9 @@
       </c>
       <c r="B40" t="s">
         <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>244</v>
       </c>
       <c r="D40" t="s">
         <v>189</v>
@@ -2878,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E27"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3010,6 +3037,31 @@
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -13,13 +13,14 @@
     <sheet name="剑修" sheetId="2" r:id="rId4"/>
     <sheet name="符师" sheetId="5" r:id="rId5"/>
     <sheet name="未分类卡池" sheetId="6" r:id="rId6"/>
+    <sheet name="招式名备选" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="461">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,6 +993,758 @@
   </si>
   <si>
     <t>气剑合一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>法术；乱魂钉、幽冥鬼火、天雷怒火、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙卷雨击、三味真火、落日熔金、龙腾水溅、</t>
+    </r>
+  </si>
+  <si>
+    <t>烈火骄阳、冥烟销骨、九龙啸天、九阴纯火、九龙冰封、魔音震心、兽王神力、追魂摄魄、</t>
+  </si>
+  <si>
+    <t>蛟龙出海、太乙生风、烈火杀阵、凤舞九天、血海深仇、梦幻血海、惊涛骇浪、</t>
+  </si>
+  <si>
+    <t>引风化雷绝、雷动九天、冰雪风暴、极寒冰魄、雷霆霹雳、玄冰盾、影虚斩、白影一劫、</t>
+  </si>
+  <si>
+    <t>皓月天降、血龙咆哮、阳光普照、万莽噬天、玄剑盾、天雷甲、火焰护盾、血光遁、开山斩、</t>
+  </si>
+  <si>
+    <t>彻地斩、横扫千军、群魔乱舞、燕分弑浪斩、水晶之墙、魔神附体、飞沙走石、冰刺急杀、</t>
+  </si>
+  <si>
+    <t>玄冰之魂、玄冰针、移形换位、水流击杀术、碧海盾、冰棱崩天、漩涡绞杀、玄冰印、</t>
+  </si>
+  <si>
+    <t>狂龙出海、水雾灭杀绝、天冰地晶、冰晶雪舞、青龙啸海、冰凤暴鸣、五气连波、暴落天雷、</t>
+  </si>
+  <si>
+    <t>风之幻龙、烈火诀、沧海诀、金铭决、快剑诀、幻术、幻灭杀绝、五彩霞衣、千幻之术、</t>
+  </si>
+  <si>
+    <r>
+      <t>土遁术、五彩流光遁、五虎啸天印、震雷鼓、白影一劫、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敲山震虎、幽火伏地印、岳山震地、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>暗黑擎天印、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2D64B3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>大辟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>之刀、飓风之眼、风云波、乱刃风绝、风之缠绕、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2D64B3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>袖里乾坤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、紫电狂龙、</t>
+    </r>
+  </si>
+  <si>
+    <t>死亡风暴、奔雷破、风起雷动、连环雷闪、狂暴风刃、凝霜成冰、寒冰掌、寒雪气罩、</t>
+  </si>
+  <si>
+    <t>紫玄冰、狂风快剑、五雷轰顶、血崩大法、土灵之爪、腥风血雨、流星暴石、幽冥血盾、</t>
+  </si>
+  <si>
+    <t>玄武斩。影虚斩。噬灵狂斩、九幽黄泉、静影沉壁、噬魂血蟒、黄龙浩气、血煞之蛊、</t>
+  </si>
+  <si>
+    <t>幻石之盾、山神之怒、幻云化掌、血魂剑、归墟册、连山绝壑、七煞形音、剑遁之法、</t>
+  </si>
+  <si>
+    <t>石化之术、吸血大法、血之狂暴、游龙掌、纷乱藤鞭、金虹贯日、突木杀绝、破木金拳、</t>
+  </si>
+  <si>
+    <t>移花接木、金刚护体、金光盖地、千杀水翔、狂砂飞石、点石成金、大海无量、幻灭掌、</t>
+  </si>
+  <si>
+    <t>天狼剑、天火剑、落石大阵、大力金刚指、金光盖地、爆雨梨花、密林斗繁星、百川汇流、</t>
+  </si>
+  <si>
+    <t>死气大阵、死气化牢、红莲烨火、朱雀振翅、星火燎原、鬼煞绝、烈蛊炎、草木凋零、</t>
+  </si>
+  <si>
+    <t>五鬼锁神、风卷雷旋、火焰护盾、离火绝炎、爆炎舞、玄阴指、舞扇之炎、九焰扇、瞬息万象、</t>
+  </si>
+  <si>
+    <t>饿狼吞天、白虎啸火、风雷破空、风化巨鸟，毒化巨蝎，音化巨狼、火蛇乱舞、烈火掌、啸天断月，混沌乾坤、九玄幻雷掌、</t>
+  </si>
+  <si>
+    <t>（1）剑刃风暴；</t>
+  </si>
+  <si>
+    <t>（2）病毒侵染；</t>
+  </si>
+  <si>
+    <t>（3）死亡之舞；</t>
+  </si>
+  <si>
+    <t>（4）天剑之舞；</t>
+  </si>
+  <si>
+    <t>（5）群星乱舞；</t>
+  </si>
+  <si>
+    <t>女人族:蛇蝎美人,追魂迷香,断肠烈散,鹤顶红粉,万毒攻心</t>
+  </si>
+  <si>
+    <t>男人族:反间之计,情真意切、谗言相加、借刀杀人、失心狂乱</t>
+  </si>
+  <si>
+    <t>人族共有法术:催眠咒、瞌睡咒、离魂咒、迷魂醉、百日眠、</t>
+  </si>
+  <si>
+    <t>作茧自缚、金蛇缠丝、天罗地网、作壁上观、四面楚歌</t>
+  </si>
+  <si>
+    <t>女仙族:地狱烈火、天雷怒火、三味真火、烈火骄阳、九阴纯火</t>
+  </si>
+  <si>
+    <r>
+      <t>男仙族:飞砂走石、乘风破浪、太乙生风、风雷涌动、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>袖里乾坤</t>
+    </r>
+  </si>
+  <si>
+    <t>仙族共有法术:雷霆霹雳、日照光华、雷神怒击、电闪雷鸣、天诛地灭、</t>
+  </si>
+  <si>
+    <r>
+      <t>龙卷雨击</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、龙腾水溅、龙啸九天、蛟龙出海、九龙冰封、</t>
+    </r>
+  </si>
+  <si>
+    <t>女魔族:红袖添香、莲步轻舞、楚楚可怜、魔神护体、含情脉脉</t>
+  </si>
+  <si>
+    <t>男魔族:魔之飞步、急速之魔、魔神飞舞、天外飞魔、乾坤借速、</t>
+  </si>
+  <si>
+    <t>魔族共有法术:妖之魔力、力神复苏、狮王之怒、兽王神力、魔神附身、</t>
+  </si>
+  <si>
+    <t>夺命勾魂、追神摄魄、魔音摄心、销魂蚀骨、阎罗追命、</t>
+  </si>
+  <si>
+    <t>吸血水蛭1利用水蛭吸取对方的血液，并化为己用。</t>
+  </si>
+  <si>
+    <t>六翅毒蝉2三尸派独门培育的蛊虫，每500年生翅一对，可用来吸血练功。</t>
+  </si>
+  <si>
+    <t>啮骨抽髓3放出大量的尸虫攻击敌方多个目标，啮其骨髓，蚀其心志。</t>
+  </si>
+  <si>
+    <t>4极厉害的蛊虫，可以吸取对方的鲜血并传送给己方。</t>
+  </si>
+  <si>
+    <t>吸星大法5放出千千万万的尸蛊之虫，蚕食对方多个单位的生命，并化为己用。</t>
+  </si>
+  <si>
+    <t>幽怜魅影1魅影芊芊，惹人怜幽，流连其中，难施其技。</t>
+  </si>
+  <si>
+    <t>醉生梦死2极尽魅惑之能，令对方沉醉其中，仿若置身于仙境，如醉如痴，忘记伤害。</t>
+  </si>
+  <si>
+    <t>一曲销魂3施技令对方如进入魔魅般的曲声中，迷失心智。</t>
+  </si>
+  <si>
+    <t>秦丝冰雾4冰雾怨何穷，秦丝娇未已。只可意会，不可言传。此技一出，人间惶恐。</t>
+  </si>
+  <si>
+    <t>倩女幽魂5小倩的独家秘籍，魅惑万千，不忍伤及。</t>
+  </si>
+  <si>
+    <t>麻沸散1使对手陷入半麻醉状态，神志不清。中法者遗忘其部分法术，并无法使用物品。</t>
+  </si>
+  <si>
+    <t>鬼失惊2召唤厉鬼显形，使对方受到过度的惊吓而丢三落四。中法者遗忘其部分的法术，并无法使用物品。</t>
+  </si>
+  <si>
+    <t>乱魂钉3地府独门暗器。钉入对方灵魂深处，使其失魂落魄，颠三倒四。中法者遗忘其部分的法术，并无法使用物品。</t>
+  </si>
+  <si>
+    <t>失心疯4鬼上身，使敌方丧心病狂，行事疯癫。中法者遗忘其部分的法术，并无法使用物品。</t>
+  </si>
+  <si>
+    <t>孟婆汤5饮下孟婆汤，三生梦断，返生无路。中法者遗忘其部分的法术，并无法使用物品。</t>
+  </si>
+  <si>
+    <t>幽冥鬼火1幽暗的冥火，忽隐忽现，却一出必中，己方倒地人数越多威力越强。</t>
+  </si>
+  <si>
+    <t>火影迷踪2把对手包围在燃烧的冥火中，顿时遗失方向，迷乱易挫，己方倒地人数越多威力越强。</t>
+  </si>
+  <si>
+    <t>冥烟销骨3屡屡青烟，销去的不仅是对方的躯体，灵魂将被一同焚燃，己方倒地人数越多威力越强。</t>
+  </si>
+  <si>
+    <t>落日熔金4熊熊冥火，烈血残阳，映入耳目，所到之处，尽染血色，己方倒地人数越多威力越强。</t>
+  </si>
+  <si>
+    <t>血海深仇5血海深仇，引燃一切。此技一出，万物皆成枯槁，埋没于岁月之中。</t>
+  </si>
+  <si>
+    <t>大唐官府：</t>
+  </si>
+  <si>
+    <t>十方无敌――横扫千军</t>
+  </si>
+  <si>
+    <t>无双一击――后发制人</t>
+  </si>
+  <si>
+    <t>神兵鉴赏――兵器谱</t>
+  </si>
+  <si>
+    <t>文韬武略――反间之计</t>
+  </si>
+  <si>
+    <t>为官之道――杀气诀</t>
+  </si>
+  <si>
+    <t>紫薇之术――紫薇之术</t>
+  </si>
+  <si>
+    <t>疾风步――千里神行</t>
+  </si>
+  <si>
+    <t>女儿村：</t>
+  </si>
+  <si>
+    <t>倾国倾城――红袖添香、楚楚可怜</t>
+  </si>
+  <si>
+    <t>沉鱼落雁――满天花雨、情天恨海</t>
+  </si>
+  <si>
+    <t>闭月羞花――莲步轻舞、如花解语、似玉生香、娉婷？啬？</t>
+  </si>
+  <si>
+    <t>香飘兰麝――轻如鸿毛</t>
+  </si>
+  <si>
+    <t>玉质冰肌――百毒不侵</t>
+  </si>
+  <si>
+    <t>清歌妙舞――移形换影</t>
+  </si>
+  <si>
+    <t>方寸山：</t>
+  </si>
+  <si>
+    <t>黄庭经――三星灭魔</t>
+  </si>
+  <si>
+    <t>霹雳灵符――五雷咒</t>
+  </si>
+  <si>
+    <t>符之术――各种符（如飞行符、兵解符、催眠符等等）</t>
+  </si>
+  <si>
+    <t>归元心法――归元咒</t>
+  </si>
+  <si>
+    <t>神道无念――乾天罡气、神兵护法</t>
+  </si>
+  <si>
+    <t>斜月步――乙木仙遁</t>
+  </si>
+  <si>
+    <t>化生寺：</t>
+  </si>
+  <si>
+    <t>小乘佛法――紫气东来</t>
+  </si>
+  <si>
+    <t>诵经――唧唧歪歪</t>
+  </si>
+  <si>
+    <t>佛光普照――达摩护体、金刚护法、韦陀护法、金刚护体、一苇渡江</t>
+  </si>
+  <si>
+    <t>大慈大悲――我佛慈悲</t>
+  </si>
+  <si>
+    <t>打坐――冥思</t>
+  </si>
+  <si>
+    <t>岐黄之术――一些医术</t>
+  </si>
+  <si>
+    <t>渡世步――佛门普渡</t>
+  </si>
+  <si>
+    <t>天宫：</t>
+  </si>
+  <si>
+    <t>天罡气――天神护体、天神护法、天诛地灭</t>
+  </si>
+  <si>
+    <t>清明自在――观色、顺风耳、千里眼、知己知彼</t>
+  </si>
+  <si>
+    <t>宁气诀――承露宁心、沾雨临风</t>
+  </si>
+  <si>
+    <t>乾坤塔――镇妖错乱</t>
+  </si>
+  <si>
+    <t>混天术――百万神兵</t>
+  </si>
+  <si>
+    <t>云霄步――腾云驾雾</t>
+  </si>
+  <si>
+    <t>龙宫：</t>
+  </si>
+  <si>
+    <t>九龙诀――释魔、鼓舞、解封、爆发、清心</t>
+  </si>
+  <si>
+    <t>呼风唤雨――龙卷雨击</t>
+  </si>
+  <si>
+    <t>龙腾――龙腾</t>
+  </si>
+  <si>
+    <t>逆鳞――逆鳞</t>
+  </si>
+  <si>
+    <t>游龙术――乘风破浪、水遁</t>
+  </si>
+  <si>
+    <t>龙附――龙吟、龙啸九天、龙附</t>
+  </si>
+  <si>
+    <t>五庄观：</t>
+  </si>
+  <si>
+    <t>乾坤袖――日月乾坤</t>
+  </si>
+  <si>
+    <t>修仙术――炼气化神、生命之泉、太极生化</t>
+  </si>
+  <si>
+    <t>周易学――苏醒归元回魂惊醒定心还神驱魔松筋、驱尸去丝</t>
+  </si>
+  <si>
+    <t>明性修身――三花聚顶</t>
+  </si>
+  <si>
+    <t>七星遁――斗转星移</t>
+  </si>
+  <si>
+    <t>普陀山：</t>
+  </si>
+  <si>
+    <t>金刚经――普渡众生</t>
+  </si>
+  <si>
+    <t>观音咒――紧箍咒、杨柳甘露</t>
+  </si>
+  <si>
+    <t>五行学说――日光华靛沧海巨岩破苍茫树地裂火</t>
+  </si>
+  <si>
+    <t>五行扭转――乾坤倒置</t>
+  </si>
+  <si>
+    <t>莲花宝座――坐莲</t>
+  </si>
+  <si>
+    <t>地府：</t>
+  </si>
+  <si>
+    <t>幽冥术――阎罗令</t>
+  </si>
+  <si>
+    <t>拘魂诀――判官令</t>
+  </si>
+  <si>
+    <t>灵通术――堪察令术疗令激励令发奋令寡欲令</t>
+  </si>
+  <si>
+    <t>九幽阴魂――幽冥鬼眼、冤魂不散</t>
+  </si>
+  <si>
+    <t>尸腐恶――尸腐毒、修罗隐身</t>
+  </si>
+  <si>
+    <t>无常步――杳无音讯</t>
+  </si>
+  <si>
+    <t>魔王寨：</t>
+  </si>
+  <si>
+    <t>牛逼神功――魔王护持</t>
+  </si>
+  <si>
+    <t>火云术――飞砂走石、三味真火</t>
+  </si>
+  <si>
+    <t>火牛阵――牛劲、踏山裂石</t>
+  </si>
+  <si>
+    <t>牛虱阵――无敌牛虱</t>
+  </si>
+  <si>
+    <t>回身击――魔王回首</t>
+  </si>
+  <si>
+    <t>裂石步――牛屎遁</t>
+  </si>
+  <si>
+    <t>狮驼岭：</t>
+  </si>
+  <si>
+    <t>本文来自逐梦写作网</t>
+  </si>
+  <si>
+    <t>生死搏――象形、鹰击、狮搏</t>
+  </si>
+  <si>
+    <t>训兽诀――威慑</t>
+  </si>
+  <si>
+    <t>魔兽神功――变身、魔兽啸天</t>
+  </si>
+  <si>
+    <t>阴阳二气诀――定心术</t>
+  </si>
+  <si>
+    <t>狂兽诀――连环击</t>
+  </si>
+  <si>
+    <t>大鹏展翅――振翅千里</t>
+  </si>
+  <si>
+    <t>魔兽反噬――极度疯狂</t>
+  </si>
+  <si>
+    <t>盘丝洞：</t>
+  </si>
+  <si>
+    <t>秋波暗送――勾魂摄魄</t>
+  </si>
+  <si>
+    <t>天外魔音――魔音摄心、魔音摄魄、魔音摄魂</t>
+  </si>
+  <si>
+    <t>蛛丝阵法――盘丝舞、夺命丝</t>
+  </si>
+  <si>
+    <t>催情大法――含情脉脉</t>
+  </si>
+  <si>
+    <t>盘丝大法――盘丝阵、定心、复苏、振奋</t>
+  </si>
+  <si>
+    <t>移形换影――天罗地网、天蚕丝</t>
+  </si>
+  <si>
+    <t>姊妹相随――姐妹同心</t>
+  </si>
+  <si>
+    <t>4.刺冰球，烈火环，火焰屏障，天火流星，烈火焚身，炎龙击，鬼火杀阵，三味真火，神火交融，紫焰旋灯，玄冰箭，紫雷箭，疾冰风暴，冰封万里，绝对零度，#之契约，闪电击，天雷引，地动山摇，地裂术，唤雨术，五雷轰顶，雷霆一击，暴风卷，狂风决，5.灭敌斩，饮血狂剑，十字斩，冰封剑舞，封魔斩，怒雷斩，天魔斩，横扫千军，紫焰斗气，轩辕斗气，狂暴诀</t>
+  </si>
+  <si>
+    <t>9.玉女素心剑法4.24.狂风快剑25.伏魔剑29.百变千幻云雾十三式61.无量剑法98.雨打飞花剑法：火凰啸天雷动九天，妖火狂魔，幻月闪。寒冰指，极寒冰魄…，大地之怒，烈焰风暴，黑暗魅影，，暗影。漩涡，潮舞月迎，流星火雨，舞……玄冰，，冰雪风暴。，</t>
+  </si>
+  <si>
+    <t>天响混元手、玄阴指，雪风剑法，狂拳，地刺术，金光罩，腐心丸，怒狮，妙手空空，</t>
+  </si>
+  <si>
+    <t>隐息术、伪匿术、刺杀技、软骨功、七鬼噬魂、定神符、</t>
+  </si>
+  <si>
+    <t>涡流术、流沙术、冰冻术、御物术、传音术、缠绕术、隐匿术、敛气术、火蛇术、</t>
+  </si>
+  <si>
+    <t>清雪寒（水），，冰结封灭阵！冰雪之神.舞扇之炎.炎神降临.水神怒吼！空气结界！空间转移</t>
+  </si>
+  <si>
+    <t>空间粉碎、血龙咆哮.冰封千里.</t>
+  </si>
+  <si>
+    <t>观骨术，土甲盾、掌心雷</t>
+  </si>
+  <si>
+    <t>地裂天崩、凝神归元、</t>
+  </si>
+  <si>
+    <t>覆雨翻云;，狐舞动天“雷灵符法、风雪冰天</t>
+  </si>
+  <si>
+    <t>水灵符法、五毒归元</t>
+  </si>
+  <si>
+    <t>蚀魄灭魂、青冥镜</t>
+  </si>
+  <si>
+    <t>五虎断魂？</t>
+  </si>
+  <si>
+    <t>九幽勾魂、</t>
+  </si>
+  <si>
+    <t>万剑归宗、</t>
+  </si>
+  <si>
+    <t>水龙卷阵，超级雷暴，红潮（禁咒）治愈术、治疗术、增加防御力、增加移动速度、防护罩、魔法护盾、力量增加等。</t>
+  </si>
+  <si>
+    <t>光剑斩！光明枷锁.光影盾。回光返照。阳光普照；光明结界；冰咆哮。晓风残月。冰风怒吼!</t>
+  </si>
+  <si>
+    <t>冰雪之神、迅雷剑、利刃风暴、冰天大阵、急速冰封、流星火雨、灵光印、嗜血骷髅、光影盾、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.百里屠苏</t>
+  </si>
+  <si>
+    <t>（1）玄真剑：习自师门的道家剑术，看似简单，但其中奥妙无穷！（剑技攻击，敌方全体！）</t>
+  </si>
+  <si>
+    <t>（2）与阿翔的合击，具体名字忘了，攻击敌方单人!</t>
+  </si>
+  <si>
+    <t>（3）毁殇：以自伤为代价，将体内凶戾之气融入天墉剑术的招式，非常凶煞！（消耗自身元精发动强力攻击，敌方单体，终结技）</t>
+  </si>
+  <si>
+    <t>（4）魔噬：当生命垂危之时，会难以克制体内的戾气，变得异常凶残（元精低于三成时，攻大幅上升）</t>
+  </si>
+  <si>
+    <t>（5）血戾：以自身的凶煞之气杀敌，同时用狂暴的情绪提升大家的斗志（特技攻击，大幅提升战意，敌方单体）</t>
+  </si>
+  <si>
+    <t>（6）煞魂：魂魄中的煞气外溢，形成一道护体真气，极其霸道！（反弹物理伤害）</t>
+  </si>
+  <si>
+    <t>（7）焚焰血戮：释放焚焰之剑所有的戾气进行非常残忍的攻击，会让施术者本身失去理智，是极为可怕的绝技！（负伤越重时，所造成的破坏越大，敌方全体）</t>
+  </si>
+  <si>
+    <t>（8）怒涛龙骧：沉睡在灵魂之中的远古印象，在觉醒的那个瞬间，带来排山倒海的力量！（强力特技攻击，敌方全体）</t>
+  </si>
+  <si>
+    <t>2.风晴雪</t>
+  </si>
+  <si>
+    <t>（1）烟月·散：冬去春来，百象更新，一切死寂重归鲜活！（解除冰冻，金属化，残废，我方单体）</t>
+  </si>
+  <si>
+    <t>（2）寒月·断：简单的攻击招式，一弯勾月，满目凄清！（镰技攻击，敌方单体）</t>
+  </si>
+  <si>
+    <t>（3）绮月·殇：诡秘莫测的镰技，出其不意的破坏对手战斗力！（镰技攻击，追加攻，敏下降三回合，敌方单体，终结技）</t>
+  </si>
+  <si>
+    <t>（4）明月·润：月华宁润，万物复苏，诸般伤痛消于无形！（恢复目标的元精，可复活，我方单体）</t>
+  </si>
+  <si>
+    <t>（5）残月·霜：招式简单，却能化出遍地霜华，森寒彻骨！（镰技攻击，追加运下降三回合，敌方全体）</t>
+  </si>
+  <si>
+    <t>（6）幽冥瘴：以体内瘴毒护身（受到近战攻击时，会令攻击方中毒三回合）</t>
+  </si>
+  <si>
+    <t>3.方兰生</t>
+  </si>
+  <si>
+    <t>（1）智拳印：以智拳手印之力伤敌，拳中包涵无上妙法，暗蕴佛门仁慈之心。（手印拳技攻击，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）妙音天：受智慧妙音指引，使人神清气爽，精力饱满。（解消衰弱，毒，我方单体）</t>
+  </si>
+  <si>
+    <t>（3）火天印：以火天之印伤敌的拳法，其中蕴含无上正气之力，灭一切邪魔歪道。（手印拳技攻击，对鬼，灵特效，敌方单体）</t>
+  </si>
+  <si>
+    <t>（4）菩提明心：凝神祈福，令受佛门无上圣光之惠，心清神明，潜力大增。（恢复全员的元精，恢复量会随战意增加，可复活，我方全体，终结技）</t>
+  </si>
+  <si>
+    <t>（5）狮子无畏印：心无所惧时，即使受到伤害，亦能凝神定气。（受到伤害时自动恢复元神）</t>
+  </si>
+  <si>
+    <t>（6）雷音伏魔：伏魔圣技，在佛祖雷霆之怒面前，万魔伏藏。（强力手印拳技攻击，追加晕眩，残废，敌方全体）</t>
+  </si>
+  <si>
+    <t>4.襄铃</t>
+  </si>
+  <si>
+    <t>（1）大地红：丢出鞭炮攻击敌人的奇特招式。（特技攻击，大幅提升战意，需要消耗爆竹，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）天狐千幻：乃是青丘涂山氏一族的究极秘术，本应非常强大，但由于施术者本身的能力不足，使这一咒术的发挥很不稳。（伤害极不稳定的强力？特技攻击，敌方单体）</t>
+  </si>
+  <si>
+    <t>（3）挥金如雨：丢出金银以攻击敌人的特异招式，能造成巨大的伤害。（特技攻击，需要消耗大量金钱，敌方全体）</t>
+  </si>
+  <si>
+    <t>（4）烟花鼠：神奇秘法制作的烟花鼠，外形可爱，会自动跑到指定地点放出漂亮的烟花。（特技攻击，追加各种不良状态，需要消耗爆竹，敌方全体，终结技）</t>
+  </si>
+  <si>
+    <t>（5）万物通灵：无论是食物还是药物，都能吃出与众不同的效用来。（在战斗中使用物品的效果倍增）</t>
+  </si>
+  <si>
+    <t>（6）魅狐：狐妖与生俱来的魅惑之力，可能在关键的时刻救自己一命。（若在元精高于三成时受到致命伤害，能强制留下少许元精，确保不会一击毙命）</t>
+  </si>
+  <si>
+    <t>5.尹千殇</t>
+  </si>
+  <si>
+    <t>（1）钝击：以极快的速度挥手肘攻击敌人，令对方措手不及，阵脚慌乱。（特技攻击，追加眩晕，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）重斩：看似简单的攻击招式，却需要过人的臂力方可发挥。（重剑技攻击，敌方单体，终结技）</t>
+  </si>
+  <si>
+    <t>（3）对酒当歌：开怀豪饮，畅快淋漓，战斗起来更加勇猛而无顾忌。（更容易打出暴击，但会降低回避率，持续五回合，需要消耗酒，自身）</t>
+  </si>
+  <si>
+    <t>（4）将进酒：将进酒，杯莫停，似醉还醒间制敌机先。（重剑技攻击，需要消耗酒，追加混乱三回合，敌方单体）</t>
+  </si>
+  <si>
+    <t>（5）醉意阑珊：沉浸在醉意之中，心驰神悦，荡气回肠，有意想不到的效果。（更容易积攒元气）</t>
+  </si>
+  <si>
+    <t>（6）横霸天下：霸道之极的剑势，给敌人造成难以想象的压力。（令眩晕技能的成功率更高，并给所有使用重剑的攻击都附带上眩晕效果）</t>
+  </si>
+  <si>
+    <t>6.红玉</t>
+  </si>
+  <si>
+    <t>（1）疏影：双剑舞动，伤敌于乱红纷飞之中。（剑舞技攻击，较大幅提升战意，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）暗香：挽剑起舞，香飘梦盈，使敌人心醉神迷而丧失斗志。（剑舞技攻击，追加衰弱状态，敌方单体）</t>
+  </si>
+  <si>
+    <t>（3）心止沉香：清心定神后，在周身形成法阵，能使灵力暂时提升。（令法术伤害大幅提升五回合，自身）</t>
+  </si>
+  <si>
+    <t>（4）乱红飞暮：残阳如血，沙场踏歌，华丽的剑舞带来的，是震撼人心的肃杀。（金属性剑舞技攻击，敌方全体，终结技）</t>
+  </si>
+  <si>
+    <t>（5）淬剑：以五行之力锻造剑身，使剑气带上更强烈的斗志。（更容易积攒战意）</t>
+  </si>
+  <si>
+    <t>:雪泣冰寒，镇魂萧，玄阳之术：炽炎火环：天火燎原，地火焚城，烈焰斩，迷心，寂灭之心，媚心大法，邪歌，撒豆成兵，裂空斩，玄凌冰煞，返命之阵，暗夜无双，烈焰焚天，炼狱之炎，九俱焚灭，剑魂连击，碎血剑，龙吼破空，雷莹剑，凤鸣剑，冰蚕玉带，封魔剑，冰龙剑，天云战袍，玄煞之体，尘风，幻影戒指，海星妖，奔雷破，风舞断空，.千刃斩，降魔印，天降甘露，千龙出海，风刃裂地，殒冰飞堕，天雷空破，万剑朝宗，迷魂大法，天眼通，碎梦剑法，断肠斩，龙须枪，摘星弓，小还丹，九龙戟，嗜血剑，狂蟒之剑，龙须之弓，仙人指路，游龙惊鸿，蛇骨鞭，移形换影，日月乾坤，地裂火，冤魂不散，盘丝阵，斩龙剑，梅莺毒，霞光万丈，烈火掌，气焰焚心，天炎刹咒，暴岩，死亡缠绕，黑沙掌，玄铁重剑：“重剑无锋，大巧不工，.玉蜂针，含沙射影，鬼头大刀，天炎红雨，寒霜蚊，</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术。太乙分光剑，裂空斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑魂连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合内，每召唤一把幻剑，对目标造成5点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1782,43 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D64B3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1066,12 +1856,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,9 +1889,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2345,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N41"/>
+  <dimension ref="A3:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2454,6 +3257,9 @@
       <c r="B7" t="s">
         <v>116</v>
       </c>
+      <c r="C7" t="s">
+        <v>409</v>
+      </c>
       <c r="D7" t="s">
         <v>194</v>
       </c>
@@ -2494,6 +3300,18 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
       <c r="K9" t="s">
         <v>77</v>
       </c>
@@ -2609,6 +3427,9 @@
       <c r="L19" t="s">
         <v>11</v>
       </c>
+      <c r="M19" t="s">
+        <v>408</v>
+      </c>
       <c r="N19" t="s">
         <v>196</v>
       </c>
@@ -2640,9 +3461,6 @@
       <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -2657,18 +3475,6 @@
       <c r="D22" t="s">
         <v>118</v>
       </c>
-      <c r="K22" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" t="s">
-        <v>231</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -2682,18 +3488,6 @@
       </c>
       <c r="D23" t="s">
         <v>180</v>
-      </c>
-      <c r="K23" t="s">
-        <v>230</v>
-      </c>
-      <c r="L23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N23" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2713,6 +3507,39 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2858,6 +3685,20 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D42" t="s">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3071,4 +3912,1084 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C626"/>
+  <sheetViews>
+    <sheetView topLeftCell="B415" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C8" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C11" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C20" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C36" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C42" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C45" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C48" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C54" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C57" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C60" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C63" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C66" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C68" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C71" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C74" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C77" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C80" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C83" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C86" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C89" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C92" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C95" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C98" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C101" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C104" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C107" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C110" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C113" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C116" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C119" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C122" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C125" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C128" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C131" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C134" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C137" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C140" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C143" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C146" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C149" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C152" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C155" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C158" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C161" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C164" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C167" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C170" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C173" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C176" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C179" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C182" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C185" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C188" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C191" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C194" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C197" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C200" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C203" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C206" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C209" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C212" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C215" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C218" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C221" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C224" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C227" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C230" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C233" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C236" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C239" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C242" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C245" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C248" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C251" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C254" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C257" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C260" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C263" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C266" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C269" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C272" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C275" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C278" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C281" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C284" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C287" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C290" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C293" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C296" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C299" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C302" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C305" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C308" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C311" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C314" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C317" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C320" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C323" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C326" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C329" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C332" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C335" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C338" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C341" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C344" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C347" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C350" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C353" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C356" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C359" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C362" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C365" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C368" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C371" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C374" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C377" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C380" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C383" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C386" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C389" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C392" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C395" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C398" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C401" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C404" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C407" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C410" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C413" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C416" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C419" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C422" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C425" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C428" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C431" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C434" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C437" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C440" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C443" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C446" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C449" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C452" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C455" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C458" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C461" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C464" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C467" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C470" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C473" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C476" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C479" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C482" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C485" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C488" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C491" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C494" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C497" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C500" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C503" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C506" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C509" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C512" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C515" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C518" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C521" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C524" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C527" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C530" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C533" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C536" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C539" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C542" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C545" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C548" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C551" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C554" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C557" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C560" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C563" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C566" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C572" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C575" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C578" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C581" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C584" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C587" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C590" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C593" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C596" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C599" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C602" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C605" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C608" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C611" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C614" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C617" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C620" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C623" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C624" s="8"/>
+    </row>
+    <row r="625" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C625" s="8"/>
+    </row>
+    <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C626" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63hIRLoENSbNhPU2jrTiSuDqA2wgAsb+cS3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
+    <hyperlink ref="C33" r:id="rId2" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61PyjqcOXCXtz7QFmQdr47dGr2iOUFwSia3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
+    <hyperlink ref="C98" r:id="rId3" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw631zIGtLPM0WlvywtBT14aNby9CHlPB3du3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
+    <hyperlink ref="C104" r:id="rId4" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63hIRLoENSbNhPU2jrTiSuDqA2wgAsb+cS3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="469">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,18 +716,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失去4点生命，抽两张牌，获得4点护甲，获得2费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>术宗·无危</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>术宗·血祭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,8 +776,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给予指定敌人3层DEBUFF，拥有该DEBUFF的敌人失去生命时，
-角色获得1把幻剑</t>
+    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一种DEBUFF，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桫椤灵符</t>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡费流（需要引入固定卡牌费用的机制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑宗·无理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,50 +835,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽牌，直到抽到的牌不是攻击牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每有一种DEBUFF，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害，获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子母剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害x2，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桫椤灵符</t>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡费流（需要引入固定卡牌费用的机制）</t>
+    <t>镜像流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制敌方的行为，化为0费的卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌越多，卡牌威力越大，或者卡牌费用越低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨打流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有很强的抗击打能力，但是会损失开局的先手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看怪物下几个回合的行动，并任意调整行动顺序的流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无定剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE攻击5x费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖血流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将血量变化为各种能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,110 +923,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑宗·无理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜像流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制敌方的行为，化为0费的卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌越多，卡牌威力越大，或者卡牌费用越低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挨打流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有很强的抗击打能力，但是会损失开局的先手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看怪物下几个回合的行动，并任意调整行动顺序的流派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无定剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把召唤的剑化为多重护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE攻击5x费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑灵通虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡正气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖血流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将血量变化为各种能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气宗·无招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,10 +968,6 @@
   </si>
   <si>
     <t>遁地，不受AOE伤害攻击？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气剑合一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1584,159 +1559,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.百里屠苏</t>
+  </si>
+  <si>
+    <t>（1）玄真剑：习自师门的道家剑术，看似简单，但其中奥妙无穷！（剑技攻击，敌方全体！）</t>
+  </si>
+  <si>
+    <t>（2）与阿翔的合击，具体名字忘了，攻击敌方单人!</t>
+  </si>
+  <si>
+    <t>（3）毁殇：以自伤为代价，将体内凶戾之气融入天墉剑术的招式，非常凶煞！（消耗自身元精发动强力攻击，敌方单体，终结技）</t>
+  </si>
+  <si>
+    <t>（4）魔噬：当生命垂危之时，会难以克制体内的戾气，变得异常凶残（元精低于三成时，攻大幅上升）</t>
+  </si>
+  <si>
+    <t>（5）血戾：以自身的凶煞之气杀敌，同时用狂暴的情绪提升大家的斗志（特技攻击，大幅提升战意，敌方单体）</t>
+  </si>
+  <si>
+    <t>（6）煞魂：魂魄中的煞气外溢，形成一道护体真气，极其霸道！（反弹物理伤害）</t>
+  </si>
+  <si>
+    <t>（7）焚焰血戮：释放焚焰之剑所有的戾气进行非常残忍的攻击，会让施术者本身失去理智，是极为可怕的绝技！（负伤越重时，所造成的破坏越大，敌方全体）</t>
+  </si>
+  <si>
+    <t>（8）怒涛龙骧：沉睡在灵魂之中的远古印象，在觉醒的那个瞬间，带来排山倒海的力量！（强力特技攻击，敌方全体）</t>
+  </si>
+  <si>
+    <t>2.风晴雪</t>
+  </si>
+  <si>
+    <t>（1）烟月·散：冬去春来，百象更新，一切死寂重归鲜活！（解除冰冻，金属化，残废，我方单体）</t>
+  </si>
+  <si>
+    <t>（2）寒月·断：简单的攻击招式，一弯勾月，满目凄清！（镰技攻击，敌方单体）</t>
+  </si>
+  <si>
+    <t>（3）绮月·殇：诡秘莫测的镰技，出其不意的破坏对手战斗力！（镰技攻击，追加攻，敏下降三回合，敌方单体，终结技）</t>
+  </si>
+  <si>
+    <t>（4）明月·润：月华宁润，万物复苏，诸般伤痛消于无形！（恢复目标的元精，可复活，我方单体）</t>
+  </si>
+  <si>
+    <t>（5）残月·霜：招式简单，却能化出遍地霜华，森寒彻骨！（镰技攻击，追加运下降三回合，敌方全体）</t>
+  </si>
+  <si>
+    <t>（6）幽冥瘴：以体内瘴毒护身（受到近战攻击时，会令攻击方中毒三回合）</t>
+  </si>
+  <si>
+    <t>3.方兰生</t>
+  </si>
+  <si>
+    <t>（1）智拳印：以智拳手印之力伤敌，拳中包涵无上妙法，暗蕴佛门仁慈之心。（手印拳技攻击，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）妙音天：受智慧妙音指引，使人神清气爽，精力饱满。（解消衰弱，毒，我方单体）</t>
+  </si>
+  <si>
+    <t>（3）火天印：以火天之印伤敌的拳法，其中蕴含无上正气之力，灭一切邪魔歪道。（手印拳技攻击，对鬼，灵特效，敌方单体）</t>
+  </si>
+  <si>
+    <t>（4）菩提明心：凝神祈福，令受佛门无上圣光之惠，心清神明，潜力大增。（恢复全员的元精，恢复量会随战意增加，可复活，我方全体，终结技）</t>
+  </si>
+  <si>
+    <t>（5）狮子无畏印：心无所惧时，即使受到伤害，亦能凝神定气。（受到伤害时自动恢复元神）</t>
+  </si>
+  <si>
+    <t>（6）雷音伏魔：伏魔圣技，在佛祖雷霆之怒面前，万魔伏藏。（强力手印拳技攻击，追加晕眩，残废，敌方全体）</t>
+  </si>
+  <si>
+    <t>4.襄铃</t>
+  </si>
+  <si>
+    <t>（1）大地红：丢出鞭炮攻击敌人的奇特招式。（特技攻击，大幅提升战意，需要消耗爆竹，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）天狐千幻：乃是青丘涂山氏一族的究极秘术，本应非常强大，但由于施术者本身的能力不足，使这一咒术的发挥很不稳。（伤害极不稳定的强力？特技攻击，敌方单体）</t>
+  </si>
+  <si>
+    <t>（3）挥金如雨：丢出金银以攻击敌人的特异招式，能造成巨大的伤害。（特技攻击，需要消耗大量金钱，敌方全体）</t>
+  </si>
+  <si>
+    <t>（4）烟花鼠：神奇秘法制作的烟花鼠，外形可爱，会自动跑到指定地点放出漂亮的烟花。（特技攻击，追加各种不良状态，需要消耗爆竹，敌方全体，终结技）</t>
+  </si>
+  <si>
+    <t>（5）万物通灵：无论是食物还是药物，都能吃出与众不同的效用来。（在战斗中使用物品的效果倍增）</t>
+  </si>
+  <si>
+    <t>（6）魅狐：狐妖与生俱来的魅惑之力，可能在关键的时刻救自己一命。（若在元精高于三成时受到致命伤害，能强制留下少许元精，确保不会一击毙命）</t>
+  </si>
+  <si>
+    <t>5.尹千殇</t>
+  </si>
+  <si>
+    <t>（1）钝击：以极快的速度挥手肘攻击敌人，令对方措手不及，阵脚慌乱。（特技攻击，追加眩晕，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）重斩：看似简单的攻击招式，却需要过人的臂力方可发挥。（重剑技攻击，敌方单体，终结技）</t>
+  </si>
+  <si>
+    <t>（3）对酒当歌：开怀豪饮，畅快淋漓，战斗起来更加勇猛而无顾忌。（更容易打出暴击，但会降低回避率，持续五回合，需要消耗酒，自身）</t>
+  </si>
+  <si>
+    <t>（4）将进酒：将进酒，杯莫停，似醉还醒间制敌机先。（重剑技攻击，需要消耗酒，追加混乱三回合，敌方单体）</t>
+  </si>
+  <si>
+    <t>（5）醉意阑珊：沉浸在醉意之中，心驰神悦，荡气回肠，有意想不到的效果。（更容易积攒元气）</t>
+  </si>
+  <si>
+    <t>（6）横霸天下：霸道之极的剑势，给敌人造成难以想象的压力。（令眩晕技能的成功率更高，并给所有使用重剑的攻击都附带上眩晕效果）</t>
+  </si>
+  <si>
+    <t>6.红玉</t>
+  </si>
+  <si>
+    <t>（1）疏影：双剑舞动，伤敌于乱红纷飞之中。（剑舞技攻击，较大幅提升战意，敌方单体）</t>
+  </si>
+  <si>
+    <t>（2）暗香：挽剑起舞，香飘梦盈，使敌人心醉神迷而丧失斗志。（剑舞技攻击，追加衰弱状态，敌方单体）</t>
+  </si>
+  <si>
+    <t>（3）心止沉香：清心定神后，在周身形成法阵，能使灵力暂时提升。（令法术伤害大幅提升五回合，自身）</t>
+  </si>
+  <si>
+    <t>（4）乱红飞暮：残阳如血，沙场踏歌，华丽的剑舞带来的，是震撼人心的肃杀。（金属性剑舞技攻击，敌方全体，终结技）</t>
+  </si>
+  <si>
+    <t>（5）淬剑：以五行之力锻造剑身，使剑气带上更强烈的斗志。（更容易积攒战意）</t>
+  </si>
+  <si>
+    <t>:雪泣冰寒，镇魂萧，玄阳之术：炽炎火环：天火燎原，地火焚城，烈焰斩，迷心，寂灭之心，媚心大法，邪歌，撒豆成兵，裂空斩，玄凌冰煞，返命之阵，暗夜无双，烈焰焚天，炼狱之炎，九俱焚灭，剑魂连击，碎血剑，龙吼破空，雷莹剑，凤鸣剑，冰蚕玉带，封魔剑，冰龙剑，天云战袍，玄煞之体，尘风，幻影戒指，海星妖，奔雷破，风舞断空，.千刃斩，降魔印，天降甘露，千龙出海，风刃裂地，殒冰飞堕，天雷空破，万剑朝宗，迷魂大法，天眼通，碎梦剑法，断肠斩，龙须枪，摘星弓，小还丹，九龙戟，嗜血剑，狂蟒之剑，龙须之弓，仙人指路，游龙惊鸿，蛇骨鞭，移形换影，日月乾坤，地裂火，冤魂不散，盘丝阵，斩龙剑，梅莺毒，霞光万丈，烈火掌，气焰焚心，天炎刹咒，暴岩，死亡缠绕，黑沙掌，玄铁重剑：“重剑无锋，大巧不工，.玉蜂针，含沙射影，鬼头大刀，天炎红雨，寒霜蚊，</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术。太乙分光剑，裂空斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑魂连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合内，每召唤一把幻剑，对目标造成5点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻舞三式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气合一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予指定敌人2层DEBUFF，拥有该DEBUFF的敌人失去生命时，
+角色获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·定心术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽两张牌，获得4点护甲，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>万剑归宗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.百里屠苏</t>
-  </si>
-  <si>
-    <t>（1）玄真剑：习自师门的道家剑术，看似简单，但其中奥妙无穷！（剑技攻击，敌方全体！）</t>
-  </si>
-  <si>
-    <t>（2）与阿翔的合击，具体名字忘了，攻击敌方单人!</t>
-  </si>
-  <si>
-    <t>（3）毁殇：以自伤为代价，将体内凶戾之气融入天墉剑术的招式，非常凶煞！（消耗自身元精发动强力攻击，敌方单体，终结技）</t>
-  </si>
-  <si>
-    <t>（4）魔噬：当生命垂危之时，会难以克制体内的戾气，变得异常凶残（元精低于三成时，攻大幅上升）</t>
-  </si>
-  <si>
-    <t>（5）血戾：以自身的凶煞之气杀敌，同时用狂暴的情绪提升大家的斗志（特技攻击，大幅提升战意，敌方单体）</t>
-  </si>
-  <si>
-    <t>（6）煞魂：魂魄中的煞气外溢，形成一道护体真气，极其霸道！（反弹物理伤害）</t>
-  </si>
-  <si>
-    <t>（7）焚焰血戮：释放焚焰之剑所有的戾气进行非常残忍的攻击，会让施术者本身失去理智，是极为可怕的绝技！（负伤越重时，所造成的破坏越大，敌方全体）</t>
-  </si>
-  <si>
-    <t>（8）怒涛龙骧：沉睡在灵魂之中的远古印象，在觉醒的那个瞬间，带来排山倒海的力量！（强力特技攻击，敌方全体）</t>
-  </si>
-  <si>
-    <t>2.风晴雪</t>
-  </si>
-  <si>
-    <t>（1）烟月·散：冬去春来，百象更新，一切死寂重归鲜活！（解除冰冻，金属化，残废，我方单体）</t>
-  </si>
-  <si>
-    <t>（2）寒月·断：简单的攻击招式，一弯勾月，满目凄清！（镰技攻击，敌方单体）</t>
-  </si>
-  <si>
-    <t>（3）绮月·殇：诡秘莫测的镰技，出其不意的破坏对手战斗力！（镰技攻击，追加攻，敏下降三回合，敌方单体，终结技）</t>
-  </si>
-  <si>
-    <t>（4）明月·润：月华宁润，万物复苏，诸般伤痛消于无形！（恢复目标的元精，可复活，我方单体）</t>
-  </si>
-  <si>
-    <t>（5）残月·霜：招式简单，却能化出遍地霜华，森寒彻骨！（镰技攻击，追加运下降三回合，敌方全体）</t>
-  </si>
-  <si>
-    <t>（6）幽冥瘴：以体内瘴毒护身（受到近战攻击时，会令攻击方中毒三回合）</t>
-  </si>
-  <si>
-    <t>3.方兰生</t>
-  </si>
-  <si>
-    <t>（1）智拳印：以智拳手印之力伤敌，拳中包涵无上妙法，暗蕴佛门仁慈之心。（手印拳技攻击，敌方单体）</t>
-  </si>
-  <si>
-    <t>（2）妙音天：受智慧妙音指引，使人神清气爽，精力饱满。（解消衰弱，毒，我方单体）</t>
-  </si>
-  <si>
-    <t>（3）火天印：以火天之印伤敌的拳法，其中蕴含无上正气之力，灭一切邪魔歪道。（手印拳技攻击，对鬼，灵特效，敌方单体）</t>
-  </si>
-  <si>
-    <t>（4）菩提明心：凝神祈福，令受佛门无上圣光之惠，心清神明，潜力大增。（恢复全员的元精，恢复量会随战意增加，可复活，我方全体，终结技）</t>
-  </si>
-  <si>
-    <t>（5）狮子无畏印：心无所惧时，即使受到伤害，亦能凝神定气。（受到伤害时自动恢复元神）</t>
-  </si>
-  <si>
-    <t>（6）雷音伏魔：伏魔圣技，在佛祖雷霆之怒面前，万魔伏藏。（强力手印拳技攻击，追加晕眩，残废，敌方全体）</t>
-  </si>
-  <si>
-    <t>4.襄铃</t>
-  </si>
-  <si>
-    <t>（1）大地红：丢出鞭炮攻击敌人的奇特招式。（特技攻击，大幅提升战意，需要消耗爆竹，敌方单体）</t>
-  </si>
-  <si>
-    <t>（2）天狐千幻：乃是青丘涂山氏一族的究极秘术，本应非常强大，但由于施术者本身的能力不足，使这一咒术的发挥很不稳。（伤害极不稳定的强力？特技攻击，敌方单体）</t>
-  </si>
-  <si>
-    <t>（3）挥金如雨：丢出金银以攻击敌人的特异招式，能造成巨大的伤害。（特技攻击，需要消耗大量金钱，敌方全体）</t>
-  </si>
-  <si>
-    <t>（4）烟花鼠：神奇秘法制作的烟花鼠，外形可爱，会自动跑到指定地点放出漂亮的烟花。（特技攻击，追加各种不良状态，需要消耗爆竹，敌方全体，终结技）</t>
-  </si>
-  <si>
-    <t>（5）万物通灵：无论是食物还是药物，都能吃出与众不同的效用来。（在战斗中使用物品的效果倍增）</t>
-  </si>
-  <si>
-    <t>（6）魅狐：狐妖与生俱来的魅惑之力，可能在关键的时刻救自己一命。（若在元精高于三成时受到致命伤害，能强制留下少许元精，确保不会一击毙命）</t>
-  </si>
-  <si>
-    <t>5.尹千殇</t>
-  </si>
-  <si>
-    <t>（1）钝击：以极快的速度挥手肘攻击敌人，令对方措手不及，阵脚慌乱。（特技攻击，追加眩晕，敌方单体）</t>
-  </si>
-  <si>
-    <t>（2）重斩：看似简单的攻击招式，却需要过人的臂力方可发挥。（重剑技攻击，敌方单体，终结技）</t>
-  </si>
-  <si>
-    <t>（3）对酒当歌：开怀豪饮，畅快淋漓，战斗起来更加勇猛而无顾忌。（更容易打出暴击，但会降低回避率，持续五回合，需要消耗酒，自身）</t>
-  </si>
-  <si>
-    <t>（4）将进酒：将进酒，杯莫停，似醉还醒间制敌机先。（重剑技攻击，需要消耗酒，追加混乱三回合，敌方单体）</t>
-  </si>
-  <si>
-    <t>（5）醉意阑珊：沉浸在醉意之中，心驰神悦，荡气回肠，有意想不到的效果。（更容易积攒元气）</t>
-  </si>
-  <si>
-    <t>（6）横霸天下：霸道之极的剑势，给敌人造成难以想象的压力。（令眩晕技能的成功率更高，并给所有使用重剑的攻击都附带上眩晕效果）</t>
-  </si>
-  <si>
-    <t>6.红玉</t>
-  </si>
-  <si>
-    <t>（1）疏影：双剑舞动，伤敌于乱红纷飞之中。（剑舞技攻击，较大幅提升战意，敌方单体）</t>
-  </si>
-  <si>
-    <t>（2）暗香：挽剑起舞，香飘梦盈，使敌人心醉神迷而丧失斗志。（剑舞技攻击，追加衰弱状态，敌方单体）</t>
-  </si>
-  <si>
-    <t>（3）心止沉香：清心定神后，在周身形成法阵，能使灵力暂时提升。（令法术伤害大幅提升五回合，自身）</t>
-  </si>
-  <si>
-    <t>（4）乱红飞暮：残阳如血，沙场踏歌，华丽的剑舞带来的，是震撼人心的肃杀。（金属性剑舞技攻击，敌方全体，终结技）</t>
-  </si>
-  <si>
-    <t>（5）淬剑：以五行之力锻造剑身，使剑气带上更强烈的斗志。（更容易积攒战意）</t>
-  </si>
-  <si>
-    <t>:雪泣冰寒，镇魂萧，玄阳之术：炽炎火环：天火燎原，地火焚城，烈焰斩，迷心，寂灭之心，媚心大法，邪歌，撒豆成兵，裂空斩，玄凌冰煞，返命之阵，暗夜无双，烈焰焚天，炼狱之炎，九俱焚灭，剑魂连击，碎血剑，龙吼破空，雷莹剑，凤鸣剑，冰蚕玉带，封魔剑，冰龙剑，天云战袍，玄煞之体，尘风，幻影戒指，海星妖，奔雷破，风舞断空，.千刃斩，降魔印，天降甘露，千龙出海，风刃裂地，殒冰飞堕，天雷空破，万剑朝宗，迷魂大法，天眼通，碎梦剑法，断肠斩，龙须枪，摘星弓，小还丹，九龙戟，嗜血剑，狂蟒之剑，龙须之弓，仙人指路，游龙惊鸿，蛇骨鞭，移形换影，日月乾坤，地裂火，冤魂不散，盘丝阵，斩龙剑，梅莺毒，霞光万丈，烈火掌，气焰焚心，天炎刹咒，暴岩，死亡缠绕，黑沙掌，玄铁重剑：“重剑无锋，大巧不工，.玉蜂针，含沙射影，鬼头大刀，天炎红雨，寒霜蚊，</t>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌库流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空凝剑术。太乙分光剑，裂空斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空凝剑术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑魂连击</t>
+    <t>所有的卡牌的类型都变成攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1744,7 +1772,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合内，每召唤一把幻剑，对目标造成5点伤害</t>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，牌库里每有一张攻击类型的卡牌，攻击力+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1880,6 +1912,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1887,15 +1928,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3150,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3206,7 +3238,7 @@
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
@@ -3218,7 +3250,7 @@
         <v>136</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N5" t="s">
         <v>141</v>
@@ -3231,11 +3263,11 @@
       <c r="B6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" t="s">
-        <v>177</v>
+      <c r="C6" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="K6" t="s">
         <v>139</v>
@@ -3252,16 +3284,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>461</v>
       </c>
       <c r="K7" t="s">
         <v>152</v>
@@ -3277,15 +3309,6 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
       <c r="K8" t="s">
         <v>139</v>
       </c>
@@ -3304,13 +3327,13 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3366,10 +3389,10 @@
         <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -3405,7 +3428,7 @@
         <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -3422,16 +3445,16 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3467,7 +3490,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -3475,38 +3498,6 @@
       <c r="D22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K26" s="1" t="s">
@@ -3515,36 +3506,39 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
@@ -3557,10 +3551,19 @@
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="K32" t="s">
+        <v>465</v>
+      </c>
+      <c r="L32" t="s">
+        <v>463</v>
+      </c>
+      <c r="N32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -3568,13 +3571,22 @@
         <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="K33" t="s">
+        <v>466</v>
+      </c>
+      <c r="L33" t="s">
+        <v>467</v>
+      </c>
+      <c r="N33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -3582,13 +3594,13 @@
         <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>166</v>
       </c>
@@ -3602,7 +3614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -3613,10 +3625,10 @@
         <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -3644,65 +3656,67 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
         <v>171</v>
       </c>
+      <c r="C39" t="s">
+        <v>454</v>
+      </c>
       <c r="D39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>188</v>
       </c>
       <c r="B40" t="s">
         <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>455</v>
       </c>
       <c r="D40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D41" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D42" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D24:H24"/>
+  <mergeCells count="1">
     <mergeCell ref="D41:J41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3728,13 +3742,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3746,168 +3760,215 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E9" t="s">
         <v>206</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>207</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>209</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>239</v>
+      <c r="B27" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>241</v>
+      <c r="B30" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>243</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3918,1068 +3979,1068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C626"/>
   <sheetViews>
-    <sheetView topLeftCell="B415" workbookViewId="0">
+    <sheetView topLeftCell="A430" workbookViewId="0">
       <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C8" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C11" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C20" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C5" s="8" t="s">
+    <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="8" t="s">
+    <row r="29" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="8" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+    <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C36" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C42" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C45" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C48" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C54" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C57" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C60" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C63" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C66" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C68" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C71" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C74" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C77" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C80" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C83" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C86" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C89" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C92" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C95" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C98" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C101" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C104" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C107" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C110" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C113" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C116" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C119" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C122" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C125" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C128" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C131" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C134" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C137" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C140" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C143" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C146" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C149" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C152" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C155" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C158" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C161" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C164" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C167" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C170" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C173" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C176" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C179" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C182" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C185" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C188" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C191" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C194" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C197" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C200" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C203" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C206" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C209" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C212" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C215" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C218" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C221" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C224" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C227" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C230" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C233" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C236" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C239" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C242" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C245" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C248" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C251" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C254" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C257" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C260" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C263" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C266" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C269" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C272" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C275" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C278" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C281" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C284" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C287" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C290" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C293" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C296" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C299" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C302" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C305" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C308" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C311" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C314" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C317" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C320" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C323" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C326" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C329" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C332" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C335" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C338" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C341" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C344" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C347" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C350" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C353" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C356" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C359" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C362" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C365" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C368" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C371" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C374" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C377" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C380" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C383" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C386" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C389" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C392" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C395" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C398" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C401" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C404" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C407" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C410" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C413" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C416" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C419" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C422" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C425" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C428" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C431" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C434" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C437" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C440" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C443" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C446" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C449" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C452" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C455" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C458" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C461" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C464" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C467" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C470" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C473" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C476" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C479" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C482" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C485" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C488" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C489" s="5"/>
+    </row>
+    <row r="490" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C490" s="5"/>
+    </row>
+    <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C491" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C494" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C497" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C500" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C503" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C506" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C23" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C36" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C39" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C42" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C48" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C54" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C57" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C60" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C63" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C66" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C68" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C71" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C74" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C77" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C80" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C83" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C86" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C89" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C92" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C95" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C101" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C107" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C110" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C113" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C115" s="8"/>
-    </row>
-    <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C116" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C119" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C122" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C125" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C128" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C131" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C134" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C137" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C140" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C143" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C146" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C149" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C152" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C155" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C158" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C161" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C164" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C167" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C170" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C173" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C176" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C179" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C182" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C185" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C188" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C191" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C194" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C197" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C200" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C203" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C206" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C209" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C212" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C215" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C218" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C221" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C224" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C227" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C230" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C233" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C236" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C239" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C242" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C245" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C248" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C251" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C254" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C257" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C260" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C263" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C266" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C269" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C272" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C275" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C278" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C281" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C284" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C287" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C290" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C293" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C296" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C299" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C302" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C305" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C308" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C311" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C314" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C317" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C320" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C323" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C326" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C329" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C332" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C335" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C338" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C341" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C344" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C347" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C350" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C353" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C356" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C359" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C362" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C365" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C368" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C371" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C374" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C377" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C380" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C383" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C386" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C389" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C392" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C395" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C398" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C401" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C404" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C407" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C410" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C413" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C416" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C419" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C422" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C425" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C428" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C431" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C434" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C437" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C440" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C443" s="10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C446" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="449" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C449" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C452" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C455" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C458" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C461" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C464" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C467" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C470" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C473" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C476" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C479" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C482" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C485" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C488" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C489" s="8"/>
-    </row>
-    <row r="490" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C490" s="8"/>
-    </row>
-    <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C491" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C494" s="8" t="s">
+    <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C509" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C512" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C515" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C497" s="8" t="s">
+    <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C518" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C500" s="8" t="s">
+    <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C521" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C503" s="8" t="s">
+    <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C524" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C506" s="8" t="s">
+    <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C527" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C509" s="8" t="s">
+    <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C530" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C512" s="8" t="s">
+    <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C533" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C515" s="8" t="s">
+    <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C536" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C518" s="8" t="s">
+    <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C539" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C521" s="8" t="s">
+    <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C542" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C524" s="8" t="s">
+    <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C545" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C527" s="8" t="s">
+    <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C548" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C530" s="8" t="s">
+    <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C551" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C533" s="8" t="s">
+    <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C554" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C536" s="8" t="s">
+    <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C557" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C539" s="8" t="s">
+    <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C560" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C542" s="8" t="s">
+    <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C563" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C545" s="8" t="s">
+    <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C566" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C548" s="8" t="s">
+    <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C572" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C551" s="8" t="s">
+    <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C575" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C554" s="8" t="s">
+    <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C578" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C557" s="8" t="s">
+    <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C581" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C560" s="8" t="s">
+    <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C584" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C563" s="8" t="s">
+    <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C587" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C566" s="8" t="s">
+    <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C590" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C572" s="8" t="s">
+    <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C593" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C575" s="8" t="s">
+    <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C596" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C578" s="8" t="s">
+    <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C599" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C581" s="8" t="s">
+    <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C602" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C584" s="8" t="s">
+    <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C605" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C587" s="8" t="s">
+    <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C608" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C590" s="8" t="s">
+    <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C611" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C593" s="8" t="s">
+    <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C614" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C596" s="8" t="s">
+    <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C617" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C599" s="8" t="s">
+    <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C620" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C602" s="8" t="s">
+    <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C623" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C605" s="8" t="s">
+    <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C624" s="5"/>
+    </row>
+    <row r="625" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C625" s="5"/>
+    </row>
+    <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C626" s="5" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C608" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C611" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C614" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C617" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C620" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C623" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C624" s="8"/>
-    </row>
-    <row r="625" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C625" s="8"/>
-    </row>
-    <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C626" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -613,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炼气凝神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>心如止水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,10 +658,6 @@
   </si>
   <si>
     <t>幻剑决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续3回合，每回合额外获得1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1695,10 +1687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空凝剑术。太乙分光剑，裂空斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1777,6 +1765,18 @@
   </si>
   <si>
     <t>造成1点伤害，牌库里每有一张攻击类型的卡牌，攻击力+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3183,7 +3183,7 @@
   <dimension ref="A3:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32:M33"/>
+      <selection activeCell="D41" sqref="D41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3238,10 +3238,10 @@
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
         <v>139</v>
@@ -3250,7 +3250,7 @@
         <v>136</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N5" t="s">
         <v>141</v>
@@ -3258,16 +3258,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K6" t="s">
         <v>139</v>
@@ -3279,24 +3279,24 @@
         <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L7" t="s">
         <v>136</v>
@@ -3305,7 +3305,7 @@
         <v>147</v>
       </c>
       <c r="N7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -3319,7 +3319,7 @@
         <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3327,13 +3327,13 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C9" t="s">
-        <v>450</v>
-      </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3342,10 +3342,10 @@
         <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3359,7 +3359,7 @@
         <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -3389,10 +3389,10 @@
         <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -3402,16 +3402,16 @@
       <c r="B15" t="s">
         <v>131</v>
       </c>
-      <c r="C15" t="s">
-        <v>149</v>
+      <c r="C15" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -3419,7 +3419,7 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
         <v>136</v>
@@ -3428,7 +3428,7 @@
         <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -3445,16 +3445,16 @@
         <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3490,7 +3490,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -3501,35 +3501,35 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N27" t="s">
         <v>227</v>
-      </c>
-      <c r="L27" t="s">
-        <v>226</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N27" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -3537,7 +3537,7 @@
         <v>122</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -3548,19 +3548,19 @@
         <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L32" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -3571,38 +3571,38 @@
         <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L33" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
@@ -3625,7 +3625,7 @@
         <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -3633,66 +3633,66 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
         <v>167</v>
       </c>
-      <c r="C37" t="s">
-        <v>169</v>
-      </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
         <v>172</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" t="s">
         <v>182</v>
-      </c>
-      <c r="B39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" t="s">
-        <v>454</v>
-      </c>
-      <c r="D39" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3742,13 +3742,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
         <v>197</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3773,30 +3773,30 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3805,18 +3805,18 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3827,13 +3827,13 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
         <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -3844,29 +3844,29 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
         <v>204</v>
-      </c>
-      <c r="C9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -3877,92 +3877,92 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3987,192 +3987,192 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C17" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C45" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -4183,627 +4183,627 @@
     </row>
     <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C164" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C167" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C170" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C173" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C176" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C179" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C182" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C185" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C191" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C194" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C197" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C200" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C203" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C206" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C209" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C212" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C215" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C218" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C221" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C224" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C227" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C230" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C233" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C236" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C239" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C242" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C245" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C248" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C251" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C254" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C257" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C260" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C263" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C266" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C269" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C272" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C275" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C278" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C281" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C284" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C287" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C290" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C296" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C299" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C302" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C305" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C308" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C311" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C314" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C317" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C320" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C323" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C326" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C329" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C332" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C335" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C338" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C341" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C344" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C347" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C350" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C353" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C356" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C386" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C389" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C392" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C395" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C398" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C401" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C404" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C407" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C410" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C413" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C416" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C419" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C422" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C425" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C428" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C431" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C434" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C437" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C440" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="449" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C449" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C452" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C455" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C458" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C461" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C464" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C467" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C470" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C473" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C476" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C479" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C482" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C485" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C488" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -4814,222 +4814,222 @@
     </row>
     <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C491" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C494" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C497" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C500" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C503" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C506" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C515" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C518" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C521" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C524" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C527" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C530" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C533" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C536" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C539" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C542" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C545" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C548" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C551" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C554" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C557" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C560" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C563" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C566" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C572" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C575" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C578" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C581" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C584" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C587" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C590" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C593" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C596" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C599" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C602" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C605" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C608" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C611" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C614" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C617" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C620" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C623" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5040,7 +5040,7 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="485">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1699,36 +1699,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>幻舞三式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气合一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·定心术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽两张牌，获得4点护甲，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合内，每召唤一把幻剑，对目标造成5点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻舞三式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑气合一</t>
+    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌库流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的卡牌的类型都变成攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，牌库里每有一张攻击类型的卡牌，攻击力+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以重置某一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些卡牌不会在重置后，从手牌中消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张攻击牌，获得攻击力25%的护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，所有卡牌打出时改为消耗等量的生命，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多段攻击卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给予指定敌人2层DEBUFF，拥有该DEBUFF的敌人失去生命时，
-角色获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术宗·定心术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽两张牌，获得4点护甲，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万剑归宗</t>
+角色获得1把幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，本回合内，每召唤一把幻剑，对目标造成5点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1736,23 +1824,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击牌库流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的卡牌的类型都变成攻击牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2费</t>
+    <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1764,19 +1836,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成1点伤害，牌库里每有一张攻击类型的卡牌，攻击力+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼气凝神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续3回合，每回合额外获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
+    <t>造成7点伤害，如果有幻剑，额外造成2次1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害6次，每用一次，攻击次数减少2，攻击次数最低减到1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3182,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3264,10 +3328,10 @@
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K6" t="s">
         <v>139</v>
@@ -3284,16 +3348,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K7" t="s">
         <v>151</v>
@@ -3333,7 +3397,7 @@
         <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3403,10 +3467,10 @@
         <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -3537,7 +3601,7 @@
         <v>122</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -3554,13 +3618,13 @@
         <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -3577,13 +3641,13 @@
         <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -3599,6 +3663,15 @@
       <c r="D34" t="s">
         <v>215</v>
       </c>
+      <c r="K34" t="s">
+        <v>470</v>
+      </c>
+      <c r="L34" t="s">
+        <v>469</v>
+      </c>
+      <c r="N34" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
@@ -3664,10 +3737,13 @@
         <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D39" t="s">
         <v>182</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -3678,10 +3754,19 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" t="s">
         <v>185</v>
+      </c>
+      <c r="K40" t="s">
+        <v>479</v>
+      </c>
+      <c r="L40" t="s">
+        <v>480</v>
+      </c>
+      <c r="N40" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3692,7 +3777,7 @@
         <v>187</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -3700,10 +3785,19 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
+      <c r="K41" t="s">
+        <v>481</v>
+      </c>
+      <c r="L41" t="s">
+        <v>482</v>
+      </c>
+      <c r="N41" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -3712,7 +3806,7 @@
         <v>448</v>
       </c>
       <c r="D42" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3760,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I38"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3814,6 +3908,17 @@
         <v>190</v>
       </c>
     </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+    </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>198</v>
@@ -3941,27 +4046,42 @@
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>232</v>
+      <c r="B33" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>234</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3979,7 +4099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C626"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" workbookViewId="0">
+    <sheetView topLeftCell="A415" workbookViewId="0">
       <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="533">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清空护甲，造成2倍护甲值的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以剑护身，对攻击者造成护甲损失值一半的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把召唤的剑化为攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幻剑流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,10 +521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑气凌霄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回剑护身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,43 +696,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>术宗·无危</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>护甲值翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·加固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命降至1点，将损失的生命转换成等量的护甲。下回合开始前，将最多扣除损失生命的护甲值，恢复等量的生命（如果没有下回合，则不回复血量！！可配合回复加强等遗物特效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得35点护甲，所有技能牌在本回合的费用+2，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌打出时，改为消耗等量的幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>护甲值翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术宗·加固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命降至1点，将损失的生命转换成等量的护甲。下回合开始前，将最多扣除损失生命的护甲值，恢复等量的生命（如果没有下回合，则不回复血量！！可配合回复加强等遗物特效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得35点护甲，所有技能牌在本回合的费用+2，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3把幻剑</t>
+    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一种DEBUFF，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成X点伤害x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桫椤灵符</t>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡费流（需要引入固定卡牌费用的机制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑宗·无理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,174 +807,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌打出时，改为消耗等量的幻剑，消耗</t>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制敌方的行为，化为0费的卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌越多，卡牌威力越大，或者卡牌费用越低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨打流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有很强的抗击打能力，但是会损失开局的先手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看怪物下几个回合的行动，并任意调整行动顺序的流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无定剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE攻击5x费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖血流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将血量变化为各种能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有手牌，造成消耗卡牌费用总和x4的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌方造成7点伤害，如果有幻剑，消耗1把幻剑，额外给予1层虚弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每有一种DEBUFF，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合，所有卡牌费用变为0。下回合所有卡牌费用+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害，获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子母剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成X点伤害x2，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桫椤灵符</t>
-  </si>
-  <si>
-    <t>3费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全防御，本回合不受伤害，使用3次后消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡费流（需要引入固定卡牌费用的机制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑宗·无理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将任意一张手牌当做攻击牌打出，造成该牌费用x6的伤害，随机目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被打出，每当你抽到该牌，额外抽一张牌。这回合内每打出一张牌，该牌的费用+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜像流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制敌方的行为，化为0费的卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌越多，卡牌威力越大，或者卡牌费用越低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挨打流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有很强的抗击打能力，但是会损失开局的先手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看怪物下几个回合的行动，并任意调整行动顺序的流派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无定剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，造成费用乘以X点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把召唤的剑化为多重护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE攻击5x费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑灵通虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡正气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖血流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将血量变化为各种能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气宗·无招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,18 +956,12 @@
     </r>
   </si>
   <si>
-    <t>烈火骄阳、冥烟销骨、九龙啸天、九阴纯火、九龙冰封、魔音震心、兽王神力、追魂摄魄、</t>
-  </si>
-  <si>
     <t>蛟龙出海、太乙生风、烈火杀阵、凤舞九天、血海深仇、梦幻血海、惊涛骇浪、</t>
   </si>
   <si>
     <t>引风化雷绝、雷动九天、冰雪风暴、极寒冰魄、雷霆霹雳、玄冰盾、影虚斩、白影一劫、</t>
   </si>
   <si>
-    <t>皓月天降、血龙咆哮、阳光普照、万莽噬天、玄剑盾、天雷甲、火焰护盾、血光遁、开山斩、</t>
-  </si>
-  <si>
     <t>彻地斩、横扫千军、群魔乱舞、燕分弑浪斩、水晶之墙、魔神附体、飞沙走石、冰刺急杀、</t>
   </si>
   <si>
@@ -1001,76 +971,12 @@
     <t>狂龙出海、水雾灭杀绝、天冰地晶、冰晶雪舞、青龙啸海、冰凤暴鸣、五气连波、暴落天雷、</t>
   </si>
   <si>
-    <t>风之幻龙、烈火诀、沧海诀、金铭决、快剑诀、幻术、幻灭杀绝、五彩霞衣、千幻之术、</t>
-  </si>
-  <si>
-    <r>
-      <t>土遁术、五彩流光遁、五虎啸天印、震雷鼓、白影一劫、</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>敲山震虎、幽火伏地印、岳山震地、</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>暗黑擎天印、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF2D64B3"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>大辟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>之刀、飓风之眼、风云波、乱刃风绝、风之缠绕、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF2D64B3"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>袖里乾坤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>、紫电狂龙、</t>
-    </r>
-  </si>
-  <si>
     <t>死亡风暴、奔雷破、风起雷动、连环雷闪、狂暴风刃、凝霜成冰、寒冰掌、寒雪气罩、</t>
   </si>
   <si>
     <t>紫玄冰、狂风快剑、五雷轰顶、血崩大法、土灵之爪、腥风血雨、流星暴石、幽冥血盾、</t>
   </si>
   <si>
-    <t>玄武斩。影虚斩。噬灵狂斩、九幽黄泉、静影沉壁、噬魂血蟒、黄龙浩气、血煞之蛊、</t>
-  </si>
-  <si>
     <t>幻石之盾、山神之怒、幻云化掌、血魂剑、归墟册、连山绝壑、七煞形音、剑遁之法、</t>
   </si>
   <si>
@@ -1099,9 +1005,6 @@
   </si>
   <si>
     <t>（3）死亡之舞；</t>
-  </si>
-  <si>
-    <t>（4）天剑之舞；</t>
   </si>
   <si>
     <t>（5）群星乱舞；</t>
@@ -1345,9 +1248,6 @@
     <t>龙宫：</t>
   </si>
   <si>
-    <t>九龙诀――释魔、鼓舞、解封、爆发、清心</t>
-  </si>
-  <si>
     <t>呼风唤雨――龙卷雨击</t>
   </si>
   <si>
@@ -1495,12 +1395,6 @@
     <t>4.刺冰球，烈火环，火焰屏障，天火流星，烈火焚身，炎龙击，鬼火杀阵，三味真火，神火交融，紫焰旋灯，玄冰箭，紫雷箭，疾冰风暴，冰封万里，绝对零度，#之契约，闪电击，天雷引，地动山摇，地裂术，唤雨术，五雷轰顶，雷霆一击，暴风卷，狂风决，5.灭敌斩，饮血狂剑，十字斩，冰封剑舞，封魔斩，怒雷斩，天魔斩，横扫千军，紫焰斗气，轩辕斗气，狂暴诀</t>
   </si>
   <si>
-    <t>9.玉女素心剑法4.24.狂风快剑25.伏魔剑29.百变千幻云雾十三式61.无量剑法98.雨打飞花剑法：火凰啸天雷动九天，妖火狂魔，幻月闪。寒冰指，极寒冰魄…，大地之怒，烈焰风暴，黑暗魅影，，暗影。漩涡，潮舞月迎，流星火雨，舞……玄冰，，冰雪风暴。，</t>
-  </si>
-  <si>
-    <t>天响混元手、玄阴指，雪风剑法，狂拳，地刺术，金光罩，腐心丸，怒狮，妙手空空，</t>
-  </si>
-  <si>
     <t>隐息术、伪匿术、刺杀技、软骨功、七鬼噬魂、定神符、</t>
   </si>
   <si>
@@ -1566,12 +1460,6 @@
     <t>（4）魔噬：当生命垂危之时，会难以克制体内的戾气，变得异常凶残（元精低于三成时，攻大幅上升）</t>
   </si>
   <si>
-    <t>（5）血戾：以自身的凶煞之气杀敌，同时用狂暴的情绪提升大家的斗志（特技攻击，大幅提升战意，敌方单体）</t>
-  </si>
-  <si>
-    <t>（6）煞魂：魂魄中的煞气外溢，形成一道护体真气，极其霸道！（反弹物理伤害）</t>
-  </si>
-  <si>
     <t>（7）焚焰血戮：释放焚焰之剑所有的戾气进行非常残忍的攻击，会让施术者本身失去理智，是极为可怕的绝技！（负伤越重时，所造成的破坏越大，敌方全体）</t>
   </si>
   <si>
@@ -1680,17 +1568,10 @@
     <t>（5）淬剑：以五行之力锻造剑身，使剑气带上更强烈的斗志。（更容易积攒战意）</t>
   </si>
   <si>
-    <t>:雪泣冰寒，镇魂萧，玄阳之术：炽炎火环：天火燎原，地火焚城，烈焰斩，迷心，寂灭之心，媚心大法，邪歌，撒豆成兵，裂空斩，玄凌冰煞，返命之阵，暗夜无双，烈焰焚天，炼狱之炎，九俱焚灭，剑魂连击，碎血剑，龙吼破空，雷莹剑，凤鸣剑，冰蚕玉带，封魔剑，冰龙剑，天云战袍，玄煞之体，尘风，幻影戒指，海星妖，奔雷破，风舞断空，.千刃斩，降魔印，天降甘露，千龙出海，风刃裂地，殒冰飞堕，天雷空破，万剑朝宗，迷魂大法，天眼通，碎梦剑法，断肠斩，龙须枪，摘星弓，小还丹，九龙戟，嗜血剑，狂蟒之剑，龙须之弓，仙人指路，游龙惊鸿，蛇骨鞭，移形换影，日月乾坤，地裂火，冤魂不散，盘丝阵，斩龙剑，梅莺毒，霞光万丈，烈火掌，气焰焚心，天炎刹咒，暴岩，死亡缠绕，黑沙掌，玄铁重剑：“重剑无锋，大巧不工，.玉蜂针，含沙射影，鬼头大刀，天炎红雨，寒霜蚊，</t>
-  </si>
-  <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚空凝剑术。太乙分光剑，裂空斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空凝剑术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,10 +1580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幻舞三式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剑气合一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1715,18 +1592,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万剑归宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击牌库流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1735,59 +1604,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有的卡牌的类型都变成攻击牌</t>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以重置某一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些卡牌不会在重置后，从手牌中消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成1点伤害，牌库里每有一张攻击类型的卡牌，攻击力+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼气凝神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续3回合，每回合额外获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间流派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以重置某一回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些卡牌不会在重置后，从手牌中消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张攻击牌，获得攻击力25%的护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1820,6 +1673,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1828,19 +1685,704 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>清空护甲，造成与护甲值相同的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始时，对所有敌方造成2点伤害，自身获得2点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方造成3点伤害3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标获得易伤10回合，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标获得脆弱5回合，虚弱5回合，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，如果有幻剑，额外造成1点伤害2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张攻击牌，获得费用+2点的护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成7点伤害，如果有幻剑，额外造成2次1点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成1点伤害6次，每用一次，攻击次数减少2，攻击次数最低减到1</t>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害，牌库里每有一张攻击类型的卡牌，攻击力+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌方获得易伤3回合，虚弱3回合，失去1点力量，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌都是攻击牌时才能使用，造成10点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前牌库里卡牌的类型都变成攻击牌，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，如果敌方被击杀，回复对应伤害值的生命，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害6次，每用一次，攻击次数减少1，伤害+1，攻击次数最低减到1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，所有攻击牌的费用减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气凌霄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点力量，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，获得4点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗干扰能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨打飞花剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混元剑阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓月天降、血龙咆哮、阳光普照、万莽噬天、玄剑盾、天雷甲、火焰护盾、血光遁、开山斩、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火骄阳、冥烟销骨、九龙啸天、九阴纯火、九龙冰封、魔音震心、兽王神力、追魂摄魄、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>土遁术、五彩流光遁、五虎啸天印、震雷鼓、白影一劫、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敲山震虎、幽火伏地印、岳山震地、</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳山震地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之幻龙、烈火诀、沧海诀、金铭决、快剑诀、幻术、幻灭杀绝、五彩霞衣、千幻之术、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护体玄真剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）血戾：以自身的凶煞之气杀敌，同时用狂暴的情绪提升大家的斗志（特技攻击，大幅提升战意，敌方单体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戾血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）煞魂：魂魄中的煞气外溢，形成一道护体真气，极其霸道！（反弹物理伤害）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑三式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑意闪回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，如果自身有幻剑，额外造成8点固定伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武斩。影虚斩。噬灵狂斩、九幽黄泉、静影沉壁、噬魂血蟒、黄龙浩气、血煞之蛊、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑虚劈刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·无招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暗黑擎天印、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2D64B3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大辟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之刀、飓风之眼、风云波、乱刃风绝、风之缠绕、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2D64B3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袖里乾坤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、紫电狂龙、</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·无危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九龙诀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>――</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释魔、鼓舞、解封、爆发、清心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天响混元手、玄阴指，雪风剑法，狂拳，地刺术，金光罩，腐心丸，怒狮，妙手空空，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·扰元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术。太乙分光剑，裂空斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太乙分光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉女素心剑法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.24.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狂风快剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伏魔剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>29.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百变千幻云雾十三式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>61.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无量剑法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>98.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨打飞花剑法：火凰啸天雷动九天，妖火狂魔，幻月闪。寒冰指，极寒冰魄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，大地之怒，烈焰风暴，黑暗魅影，，暗影。漩涡，潮舞月迎，流星火雨，舞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玄冰，，冰雪风暴。，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）天剑之舞；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·熄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·灭灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑技连枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融剑护体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪泣冰寒，镇魂萧，玄阳之术：炽炎火环：天火燎原，地火焚城，烈焰斩，迷心，寂灭之心，媚心大法，邪歌，撒豆成兵，裂空斩，玄凌冰煞，返命之阵，暗夜无双，烈焰焚天，炼狱之炎，九俱焚灭，剑魂连击，碎血剑，龙吼破空，雷莹剑，凤鸣剑，冰蚕玉带，封魔剑，冰龙剑，天云战袍，玄煞之体，尘风，幻影戒指，海星妖，奔雷破，风舞断空，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>千刃斩，降魔印，天降甘露，千龙出海，风刃裂地，殒冰飞堕，天雷空破，万剑朝宗，迷魂大法，天眼通，碎梦剑法，断肠斩，龙须枪，摘星弓，小还丹，九龙戟，嗜血剑，狂蟒之剑，龙须之弓，仙人指路，游龙惊鸿，蛇骨鞭，移形换影，日月乾坤，地裂火，冤魂不散，盘丝阵，斩龙剑，梅莺毒，霞光万丈，烈火掌，气焰焚心，天炎刹咒，暴岩，死亡缠绕，黑沙掌，玄铁重剑：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重剑无锋，大巧不工，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉蜂针，含沙射影，鬼头大刀，天炎红雨，寒霜蚊，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼剑熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑鞘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,12 +2428,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF2D64B3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1912,6 +2448,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D64B3"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1956,7 +2499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1979,10 +2522,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2341,7 +2884,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2349,7 +2892,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2357,7 +2900,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3244,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N42"/>
+  <dimension ref="A3:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3262,128 +3805,128 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" t="s">
-        <v>137</v>
-      </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" t="s">
         <v>135</v>
-      </c>
-      <c r="N4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D6" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="K6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" t="s">
         <v>139</v>
       </c>
-      <c r="L6" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" t="s">
-        <v>142</v>
-      </c>
       <c r="N6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
-        <v>453</v>
+      <c r="C7" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3391,91 +3934,119 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>491</v>
+      </c>
+      <c r="L11" t="s">
+        <v>485</v>
+      </c>
+      <c r="M11" t="s">
+        <v>500</v>
+      </c>
+      <c r="N11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>471</v>
+      </c>
+      <c r="B16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -3483,16 +4054,16 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -3506,19 +4077,19 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3529,10 +4100,22 @@
         <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
+      </c>
+      <c r="K20" t="s">
+        <v>458</v>
+      </c>
+      <c r="L20" t="s">
+        <v>459</v>
+      </c>
+      <c r="M20" t="s">
+        <v>496</v>
+      </c>
+      <c r="N20" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -3548,83 +4131,154 @@
       <c r="D21" t="s">
         <v>115</v>
       </c>
+      <c r="K21" t="s">
+        <v>487</v>
+      </c>
+      <c r="L21" t="s">
+        <v>482</v>
+      </c>
+      <c r="M21" t="s">
+        <v>495</v>
+      </c>
+      <c r="N21" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>456</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>491</v>
+      </c>
+      <c r="B23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D26" t="s">
+        <v>483</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>226</v>
+        <v>512</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K29" t="s">
+        <v>463</v>
+      </c>
+      <c r="L29" t="s">
+        <v>464</v>
+      </c>
+      <c r="M29" t="s">
+        <v>517</v>
+      </c>
+      <c r="N29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K30" t="s">
+        <v>474</v>
+      </c>
+      <c r="L30" t="s">
+        <v>465</v>
+      </c>
+      <c r="M30" t="s">
+        <v>525</v>
+      </c>
+      <c r="N30" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>456</v>
+        <v>120</v>
+      </c>
+      <c r="K31" t="s">
+        <v>475</v>
+      </c>
+      <c r="L31" t="s">
+        <v>465</v>
+      </c>
+      <c r="M31" t="s">
+        <v>524</v>
+      </c>
+      <c r="N31" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" t="s">
-        <v>459</v>
-      </c>
-      <c r="L32" t="s">
-        <v>457</v>
-      </c>
-      <c r="N32" t="s">
-        <v>458</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -3632,73 +4286,70 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
-      </c>
-      <c r="K33" t="s">
-        <v>460</v>
-      </c>
-      <c r="L33" t="s">
-        <v>461</v>
-      </c>
-      <c r="N33" t="s">
-        <v>462</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" t="s">
-        <v>470</v>
-      </c>
-      <c r="L34" t="s">
-        <v>469</v>
-      </c>
-      <c r="N34" t="s">
-        <v>471</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>488</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>489</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="K36" t="s">
+        <v>457</v>
+      </c>
+      <c r="L36" t="s">
+        <v>434</v>
+      </c>
+      <c r="M36" t="s">
+        <v>523</v>
+      </c>
+      <c r="N36" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -3706,78 +4357,117 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="K37" t="s">
+        <v>435</v>
+      </c>
+      <c r="L37" t="s">
+        <v>436</v>
+      </c>
+      <c r="M37" t="s">
+        <v>526</v>
+      </c>
+      <c r="N37" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
         <v>169</v>
       </c>
-      <c r="C38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" t="s">
-        <v>172</v>
+      <c r="K38" t="s">
+        <v>444</v>
+      </c>
+      <c r="L38" t="s">
+        <v>443</v>
+      </c>
+      <c r="M38" t="s">
+        <v>527</v>
+      </c>
+      <c r="N38" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>475</v>
+        <v>177</v>
+      </c>
+      <c r="K39" t="s">
+        <v>478</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>529</v>
+      </c>
+      <c r="N39" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K40" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L40" t="s">
-        <v>480</v>
+        <v>485</v>
+      </c>
+      <c r="M40" t="s">
+        <v>530</v>
       </c>
       <c r="N40" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>508</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -3785,28 +4475,69 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" t="s">
-        <v>481</v>
-      </c>
-      <c r="L41" t="s">
-        <v>482</v>
-      </c>
-      <c r="N41" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
+        <v>428</v>
+      </c>
+      <c r="D42" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>511</v>
+      </c>
+      <c r="D43" t="s">
+        <v>509</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D42" t="s">
-        <v>478</v>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K44" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44" t="s">
+        <v>452</v>
+      </c>
+      <c r="M44" t="s">
+        <v>522</v>
+      </c>
+      <c r="N44" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K45" t="s">
+        <v>453</v>
+      </c>
+      <c r="L45" t="s">
+        <v>454</v>
+      </c>
+      <c r="M45" t="s">
+        <v>519</v>
+      </c>
+      <c r="N45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -3831,18 +4562,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3867,30 +4598,30 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3899,29 +4630,29 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3932,13 +4663,13 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -3949,29 +4680,29 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -3982,107 +4713,107 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4097,202 +4828,203 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C626"/>
+  <dimension ref="C2:H626"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView topLeftCell="B414" workbookViewId="0">
+      <selection activeCell="C626" sqref="C626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C5" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="7" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="5" t="s">
-        <v>241</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="7" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C36" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C36" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C45" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>261</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -4303,627 +5035,627 @@
     </row>
     <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="5" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="5" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="5" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="5" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C164" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C167" s="5" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C170" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C173" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C176" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C179" s="5" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C182" s="5" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C185" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="5" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C191" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C194" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C197" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C200" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C203" s="5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C206" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C209" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C212" s="5" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C215" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C218" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C221" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C224" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C227" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C230" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C233" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C236" s="5" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C239" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C242" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C245" s="5" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C248" s="5" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C251" s="5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C254" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C257" s="5" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C260" s="5" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C263" s="5" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C266" s="5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C269" s="5" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C272" s="5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C275" s="5" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C278" s="5" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C281" s="5" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C284" s="5" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C287" s="5" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C290" s="5" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>333</v>
+        <v>515</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C296" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C299" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C302" s="5" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C305" s="5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C308" s="5" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C311" s="5" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C314" s="5" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C317" s="5" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C320" s="5" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C323" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C326" s="5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C329" s="5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C332" s="5" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C335" s="5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C338" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C341" s="5" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C344" s="5" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C347" s="5" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C350" s="5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C353" s="5" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C356" s="5" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C386" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C389" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C392" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C395" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C398" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C401" s="5" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C404" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C407" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C410" s="5" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C413" s="5" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C416" s="5" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C419" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C422" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C425" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C428" s="5" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C431" s="5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C434" s="5" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C437" s="5" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C440" s="5" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="449" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C449" s="5" t="s">
-        <v>384</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C449" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C452" s="5" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C455" s="5" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C458" s="5" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C461" s="5" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C464" s="5" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C467" s="5" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C470" s="5" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C473" s="5" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C476" s="5" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C479" s="5" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C482" s="5" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C485" s="5" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C488" s="5" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -4934,222 +5666,222 @@
     </row>
     <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C491" s="5" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C494" s="5" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C497" s="5" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C500" s="5" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C503" s="5" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C506" s="5" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>406</v>
+        <v>504</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C515" s="5" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C518" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C521" s="5" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C524" s="5" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C527" s="5" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C530" s="5" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C533" s="5" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C536" s="5" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C539" s="5" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C542" s="5" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C545" s="5" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C548" s="5" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C551" s="5" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C554" s="5" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C557" s="5" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C560" s="5" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C563" s="5" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C566" s="5" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C572" s="5" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C575" s="5" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C578" s="5" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C581" s="5" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C584" s="5" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C587" s="5" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C590" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C593" s="5" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C596" s="5" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C599" s="5" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C602" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C605" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C608" s="5" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C611" s="5" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C614" s="5" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C617" s="5" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C620" s="5" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C623" s="5" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5160,16 +5892,15 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63hIRLoENSbNhPU2jrTiSuDqA2wgAsb+cS3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
-    <hyperlink ref="C33" r:id="rId2" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61PyjqcOXCXtz7QFmQdr47dGr2iOUFwSia3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
-    <hyperlink ref="C98" r:id="rId3" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw631zIGtLPM0WlvywtBT14aNby9CHlPB3du3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
-    <hyperlink ref="C104" r:id="rId4" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63hIRLoENSbNhPU2jrTiSuDqA2wgAsb+cS3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
+    <hyperlink ref="C98" r:id="rId2" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw631zIGtLPM0WlvywtBT14aNby9CHlPB3du3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
+    <hyperlink ref="C104" r:id="rId3" display="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63hIRLoENSbNhPU2jrTiSuDqA2wgAsb+cS3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrIMmUZ/0aAzeyi7aR8CNjACL81Ct7qmGXSG0Nr30hNdB4Hq462I3zl8CCaPSPJXQSIVmYQFUeMaCgwPGbuJnYGNA=="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -2378,11 +2378,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>巨大的剑袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>抽牌，直到抽到的牌不是攻击牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的剑鞘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3789,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3896,11 +3896,11 @@
       <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" t="s">
         <v>532</v>
-      </c>
-      <c r="D7" t="s">
-        <v>531</v>
       </c>
       <c r="K7" t="s">
         <v>148</v>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -1750,10 +1750,6 @@
   </si>
   <si>
     <t>1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成3点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2383,6 +2379,10 @@
   </si>
   <si>
     <t>抽牌，直到抽到的牌不是攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成4点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3789,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3845,7 +3845,7 @@
         <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D5" t="s">
         <v>152</v>
@@ -3897,10 +3897,10 @@
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" t="s">
         <v>531</v>
-      </c>
-      <c r="D7" t="s">
-        <v>532</v>
       </c>
       <c r="K7" t="s">
         <v>148</v>
@@ -3971,16 +3971,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
+        <v>490</v>
+      </c>
+      <c r="L11" t="s">
+        <v>484</v>
+      </c>
+      <c r="M11" t="s">
+        <v>499</v>
+      </c>
+      <c r="N11" t="s">
         <v>491</v>
-      </c>
-      <c r="L11" t="s">
-        <v>485</v>
-      </c>
-      <c r="M11" t="s">
-        <v>500</v>
-      </c>
-      <c r="N11" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4037,11 +4037,11 @@
       <c r="B16" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>502</v>
+      <c r="C16" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -4112,7 +4112,7 @@
         <v>459</v>
       </c>
       <c r="M20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N20" t="s">
         <v>460</v>
@@ -4132,13 +4132,13 @@
         <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N21" t="s">
         <v>462</v>
@@ -4160,35 +4160,35 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B23" t="s">
         <v>461</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" t="s">
         <v>481</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" t="s">
         <v>482</v>
-      </c>
-      <c r="C26" t="s">
-        <v>505</v>
-      </c>
-      <c r="D26" t="s">
-        <v>483</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>154</v>
@@ -4202,7 +4202,7 @@
         <v>219</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N27" t="s">
         <v>221</v>
@@ -4230,7 +4230,7 @@
         <v>464</v>
       </c>
       <c r="M29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N29" t="s">
         <v>466</v>
@@ -4238,13 +4238,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L30" t="s">
         <v>465</v>
       </c>
       <c r="M30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N30" t="s">
         <v>467</v>
@@ -4255,21 +4255,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L31" t="s">
         <v>465</v>
       </c>
       <c r="M31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
@@ -4317,10 +4317,10 @@
         <v>122</v>
       </c>
       <c r="C35" t="s">
+        <v>487</v>
+      </c>
+      <c r="D35" t="s">
         <v>488</v>
-      </c>
-      <c r="D35" t="s">
-        <v>489</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>433</v>
@@ -4346,10 +4346,10 @@
         <v>434</v>
       </c>
       <c r="M36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4372,10 +4372,10 @@
         <v>436</v>
       </c>
       <c r="M37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -4398,7 +4398,7 @@
         <v>443</v>
       </c>
       <c r="M38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N38" t="s">
         <v>469</v>
@@ -4412,22 +4412,22 @@
         <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D39" t="s">
         <v>177</v>
       </c>
       <c r="K39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -4444,16 +4444,16 @@
         <v>180</v>
       </c>
       <c r="K40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L40" t="s">
+        <v>484</v>
+      </c>
+      <c r="M40" t="s">
+        <v>529</v>
+      </c>
+      <c r="N40" t="s">
         <v>485</v>
-      </c>
-      <c r="M40" t="s">
-        <v>530</v>
-      </c>
-      <c r="N40" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -4464,7 +4464,7 @@
         <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>449</v>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>448</v>
@@ -4515,10 +4515,10 @@
         <v>452</v>
       </c>
       <c r="M44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -4529,7 +4529,7 @@
         <v>454</v>
       </c>
       <c r="M45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N45" t="s">
         <v>468</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -4863,7 +4863,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -4883,18 +4883,18 @@
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -4909,7 +4909,7 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -4964,7 +4964,7 @@
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5330,7 +5330,7 @@
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5580,17 +5580,17 @@
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C449" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5696,12 +5696,12 @@
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5892,7 +5892,7 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="531">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,14 +666,6 @@
   </si>
   <si>
     <t>阵法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1636,10 +1628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,10 +1686,6 @@
   </si>
   <si>
     <t>2费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2383,6 +2367,14 @@
   </si>
   <si>
     <t>造成4点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑天引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3789,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3845,7 +3837,7 @@
         <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
         <v>152</v>
@@ -3857,7 +3849,7 @@
         <v>133</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
         <v>138</v>
@@ -3871,10 +3863,10 @@
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K6" t="s">
         <v>136</v>
@@ -3891,16 +3883,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K7" t="s">
         <v>148</v>
@@ -3934,13 +3926,13 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3971,16 +3963,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4010,10 +4002,10 @@
         <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -4024,24 +4016,24 @@
         <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -4063,7 +4055,7 @@
         <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -4080,16 +4072,16 @@
         <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -4106,16 +4098,16 @@
         <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L20" t="s">
-        <v>459</v>
+        <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N20" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -4132,16 +4124,16 @@
         <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M21" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N21" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -4149,46 +4141,46 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D23" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B26" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D26" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>154</v>
@@ -4196,58 +4188,58 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="N27" t="s">
         <v>219</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="N27" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L29" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N29" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L30" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M30" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N30" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -4255,21 +4247,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L31" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M31" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
@@ -4278,7 +4270,7 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -4289,10 +4281,10 @@
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -4303,10 +4295,10 @@
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -4317,13 +4309,13 @@
         <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D35" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -4337,19 +4329,19 @@
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M36" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N36" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4359,115 +4351,115 @@
       <c r="B37" t="s">
         <v>162</v>
       </c>
-      <c r="C37" t="s">
-        <v>164</v>
+      <c r="C37" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>529</v>
       </c>
       <c r="K37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M37" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N37" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
         <v>167</v>
       </c>
-      <c r="D38" t="s">
-        <v>169</v>
-      </c>
       <c r="K38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L38" t="s">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>502</v>
+      </c>
+      <c r="D39" t="s">
         <v>175</v>
       </c>
-      <c r="B39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>506</v>
-      </c>
-      <c r="D39" t="s">
-        <v>177</v>
-      </c>
       <c r="K39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K40" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L40" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M40" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -4478,33 +4470,33 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D43" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4512,32 +4504,32 @@
         <v>113</v>
       </c>
       <c r="L44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M44" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N44" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K45" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M45" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N45" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4567,13 +4559,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4598,30 +4590,30 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4630,29 +4622,29 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4663,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
         <v>194</v>
-      </c>
-      <c r="D7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -4680,29 +4672,29 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
         <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -4713,107 +4705,107 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4838,193 +4830,193 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5035,627 +5027,627 @@
     </row>
     <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C164" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C167" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C170" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C173" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C176" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C179" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C182" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C185" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C191" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C194" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C197" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C200" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C203" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C206" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C209" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C212" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C215" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C218" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C221" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C224" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C227" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C230" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C233" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C236" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C239" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C242" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C245" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C248" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C251" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C254" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C257" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C260" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C263" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C266" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C269" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C272" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C275" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C278" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C281" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C284" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C287" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C290" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C296" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C299" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C302" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C305" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C308" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C311" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C314" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C317" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C320" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C323" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C326" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C329" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C332" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C335" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C338" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C341" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C344" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C347" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C350" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C353" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C356" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C386" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C389" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C392" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C395" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C398" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C401" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C404" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C407" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C410" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C413" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C416" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C419" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C422" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C425" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C428" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C431" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C434" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C437" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C440" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C449" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C452" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C455" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C458" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C461" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C464" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C467" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C470" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C473" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C476" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C479" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C482" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C485" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C488" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5666,222 +5658,222 @@
     </row>
     <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C491" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C494" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C497" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C500" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C503" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C506" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C515" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C518" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C521" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C524" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C527" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C530" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C533" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C536" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C539" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C542" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C545" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C548" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C551" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C554" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C557" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C560" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C563" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C566" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C572" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C575" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C578" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C581" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C584" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C587" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C590" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C593" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C596" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C599" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C602" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C605" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C608" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C611" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C614" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C617" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C620" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C623" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5892,7 +5884,7 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -728,10 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌打出时，改为消耗等量的幻剑，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,10 +1666,6 @@
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空护甲，造成与护甲值相同的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1904,10 +1896,6 @@
       </rPr>
       <t>）血戾：以自身的凶煞之气杀敌，同时用狂暴的情绪提升大家的斗志（特技攻击，大幅提升战意，敌方单体）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戾血剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2375,6 +2363,18 @@
   </si>
   <si>
     <t>幻剑天引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空护甲，造成与护甲值相同的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合，卡牌打出时，改为消耗等量的幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戾血剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3837,7 +3837,7 @@
         <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D5" t="s">
         <v>152</v>
@@ -3849,7 +3849,7 @@
         <v>133</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N5" t="s">
         <v>138</v>
@@ -3863,10 +3863,10 @@
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
         <v>428</v>
-      </c>
-      <c r="D6" t="s">
-        <v>429</v>
       </c>
       <c r="K6" t="s">
         <v>136</v>
@@ -3883,16 +3883,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K7" t="s">
         <v>148</v>
@@ -3926,13 +3926,13 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3963,16 +3963,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4002,10 +4002,10 @@
         <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
         <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -4016,24 +4016,24 @@
         <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" t="s">
         <v>435</v>
-      </c>
-      <c r="D15" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -4055,7 +4055,7 @@
         <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -4078,10 +4078,10 @@
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -4098,16 +4098,16 @@
         <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L20" t="s">
         <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -4124,16 +4124,16 @@
         <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -4141,46 +4141,46 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
-      </c>
-      <c r="C22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B23" t="s">
+        <v>455</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" t="s">
         <v>486</v>
-      </c>
-      <c r="B23" t="s">
-        <v>457</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D23" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>474</v>
+      </c>
+      <c r="B26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" t="s">
         <v>476</v>
-      </c>
-      <c r="B26" t="s">
-        <v>477</v>
-      </c>
-      <c r="C26" t="s">
-        <v>500</v>
-      </c>
-      <c r="D26" t="s">
-        <v>478</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>154</v>
@@ -4188,58 +4188,58 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N27" t="s">
         <v>218</v>
-      </c>
-      <c r="L27" t="s">
-        <v>217</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="N27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N28" t="s">
         <v>220</v>
-      </c>
-      <c r="N28" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L29" t="s">
+        <v>458</v>
+      </c>
+      <c r="M29" t="s">
+        <v>509</v>
+      </c>
+      <c r="N29" t="s">
         <v>460</v>
-      </c>
-      <c r="M29" t="s">
-        <v>512</v>
-      </c>
-      <c r="N29" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L30" t="s">
+        <v>459</v>
+      </c>
+      <c r="M30" t="s">
+        <v>517</v>
+      </c>
+      <c r="N30" t="s">
         <v>461</v>
-      </c>
-      <c r="M30" t="s">
-        <v>520</v>
-      </c>
-      <c r="N30" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -4247,21 +4247,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
@@ -4270,7 +4270,7 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -4281,10 +4281,10 @@
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
         <v>186</v>
-      </c>
-      <c r="D33" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -4295,10 +4295,10 @@
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" t="s">
         <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -4309,13 +4309,13 @@
         <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -4329,19 +4329,19 @@
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N36" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4352,22 +4352,22 @@
         <v>162</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D37" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K37" t="s">
+        <v>432</v>
+      </c>
+      <c r="L37" t="s">
         <v>433</v>
       </c>
-      <c r="L37" t="s">
-        <v>434</v>
-      </c>
       <c r="M37" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -4384,16 +4384,16 @@
         <v>167</v>
       </c>
       <c r="K38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L38" t="s">
         <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4404,22 +4404,22 @@
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D39" t="s">
         <v>175</v>
       </c>
       <c r="K39" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="N39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -4430,36 +4430,36 @@
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>529</v>
       </c>
       <c r="K40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M40" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N40" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s">
         <v>179</v>
       </c>
-      <c r="B41" t="s">
-        <v>180</v>
-      </c>
       <c r="C41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -4470,33 +4470,33 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4504,32 +4504,32 @@
         <v>113</v>
       </c>
       <c r="L44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M44" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K45" t="s">
+        <v>449</v>
+      </c>
+      <c r="L45" t="s">
         <v>450</v>
       </c>
-      <c r="L45" t="s">
-        <v>451</v>
-      </c>
       <c r="M45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N45" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -4559,13 +4559,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
         <v>189</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4628,23 +4628,23 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" t="s">
         <v>442</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>443</v>
-      </c>
-      <c r="E4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4655,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
         <v>192</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -4677,24 +4677,24 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
         <v>195</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>196</v>
-      </c>
-      <c r="E9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -4705,107 +4705,107 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4830,193 +4830,193 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5027,627 +5027,627 @@
     </row>
     <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C164" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C167" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C170" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C173" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C176" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C179" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C182" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C185" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C191" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C194" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C197" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C200" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C203" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C206" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C209" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C212" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C215" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C218" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C221" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C224" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C227" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C230" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C233" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C236" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C239" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C242" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C245" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C248" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C251" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C254" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C257" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C260" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C263" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C266" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C269" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C272" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C275" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C278" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C281" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C284" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C287" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C290" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C296" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C299" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C302" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C305" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C308" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C311" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C314" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C317" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C320" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C323" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C326" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C329" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C332" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C335" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C338" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C341" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C344" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C347" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C350" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C353" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C356" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C386" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C389" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C392" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C395" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C398" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C401" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C404" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C407" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C410" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C413" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C416" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C419" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C422" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C425" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C428" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C431" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C434" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C437" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C440" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C449" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C452" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C455" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C458" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C461" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C464" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C467" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C470" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C473" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C476" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C479" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C482" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C485" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C488" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5658,222 +5658,222 @@
     </row>
     <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C491" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C494" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C497" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C500" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C503" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C506" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C515" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C518" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C521" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C524" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C527" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C530" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C533" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C536" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C539" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C542" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C545" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C548" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C551" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C554" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C557" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C560" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C563" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C566" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C572" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C575" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C578" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C581" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C584" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C587" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C590" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C593" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C596" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C599" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C602" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C605" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C608" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C611" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C614" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C617" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C620" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C623" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5884,7 +5884,7 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -684,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将当前的幻剑数翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,10 +709,6 @@
   </si>
   <si>
     <t>获得35点护甲，所有技能牌在本回合的费用+2，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3把幻剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1710,10 +1702,6 @@
   </si>
   <si>
     <t>目标获得脆弱5回合，虚弱5回合，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害，如果有幻剑，额外造成1点伤害2次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2053,10 +2041,6 @@
   </si>
   <si>
     <t>虚空凝剑术。太乙分光剑，裂空斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太乙分光剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2375,6 +2359,22 @@
   </si>
   <si>
     <t>戾血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3把幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前的幻剑数翻倍，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太乙分光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，如果有幻剑，消耗一把幻剑，额外造成1点伤害2次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3837,7 +3837,7 @@
         <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
         <v>152</v>
@@ -3849,7 +3849,7 @@
         <v>133</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N5" t="s">
         <v>138</v>
@@ -3863,10 +3863,10 @@
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K6" t="s">
         <v>136</v>
@@ -3883,16 +3883,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K7" t="s">
         <v>148</v>
@@ -3926,13 +3926,13 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3963,16 +3963,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4002,10 +4002,10 @@
         <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -4016,24 +4016,24 @@
         <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -4055,7 +4055,7 @@
         <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -4072,16 +4072,16 @@
         <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -4098,16 +4098,16 @@
         <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L20" t="s">
         <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -4124,16 +4124,16 @@
         <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L21" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -4141,46 +4141,46 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D26" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>154</v>
@@ -4188,58 +4188,58 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="N27" t="s">
         <v>216</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="N27" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L29" t="s">
+        <v>456</v>
+      </c>
+      <c r="M29" t="s">
+        <v>506</v>
+      </c>
+      <c r="N29" t="s">
         <v>458</v>
-      </c>
-      <c r="M29" t="s">
-        <v>509</v>
-      </c>
-      <c r="N29" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L30" t="s">
+        <v>457</v>
+      </c>
+      <c r="M30" t="s">
+        <v>513</v>
+      </c>
+      <c r="N30" t="s">
         <v>459</v>
-      </c>
-      <c r="M30" t="s">
-        <v>517</v>
-      </c>
-      <c r="N30" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -4247,21 +4247,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M31" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
@@ -4270,7 +4270,7 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -4281,10 +4281,10 @@
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -4295,10 +4295,10 @@
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -4309,13 +4309,13 @@
         <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -4329,19 +4329,19 @@
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N36" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4352,22 +4352,22 @@
         <v>162</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D37" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M37" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -4381,85 +4381,85 @@
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="K38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L38" t="s">
         <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>527</v>
       </c>
       <c r="K39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D40" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K40" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N40" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -4470,33 +4470,33 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D43" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4504,32 +4504,32 @@
         <v>113</v>
       </c>
       <c r="L44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M44" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N44" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K45" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s">
-        <v>450</v>
-      </c>
-      <c r="M45" t="s">
-        <v>511</v>
+        <v>448</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="N45" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4559,13 +4559,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
         <v>187</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4590,30 +4590,30 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4622,29 +4622,29 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
         <v>441</v>
-      </c>
-      <c r="C4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4655,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
         <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -4672,29 +4672,29 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -4705,107 +4705,107 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4830,193 +4830,193 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5027,627 +5027,627 @@
     </row>
     <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C164" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C167" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C170" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C173" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C176" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C179" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C182" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C185" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C191" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C194" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C197" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C200" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C203" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C206" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C209" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C212" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C215" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C218" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C221" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C224" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C227" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C230" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C233" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C236" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C239" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C242" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C245" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C248" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C251" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C254" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C257" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C260" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C263" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C266" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C269" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C272" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C275" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C278" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C281" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C284" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C287" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C290" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C296" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C299" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C302" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C305" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C308" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C311" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C314" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C317" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C320" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C323" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C326" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C329" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C332" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C335" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C338" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C341" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C344" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C347" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C350" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C353" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C356" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C386" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C389" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C392" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C395" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C398" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C401" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C404" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C407" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C410" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C413" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C416" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C419" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C422" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C425" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C428" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C431" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C434" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C437" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C440" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C449" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C452" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C455" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C458" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C461" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C464" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C467" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C470" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C473" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C476" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C479" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C482" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C485" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C488" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5658,222 +5658,222 @@
     </row>
     <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C491" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C494" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C497" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C500" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C503" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C506" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C515" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C518" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C521" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C524" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C527" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C530" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C533" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C536" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C539" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C542" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C545" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C548" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C551" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C554" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C557" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C560" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C563" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C566" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C572" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C575" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C578" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C581" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C584" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C587" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C590" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C593" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C596" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C599" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C602" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C605" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C608" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C611" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C614" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C617" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C620" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C623" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5884,7 +5884,7 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/doc/牌库.xlsx
+++ b/doc/牌库.xlsx
@@ -601,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心如止水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无视护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,10 +614,6 @@
   </si>
   <si>
     <t>获得2点敏捷，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除所有负面状态，消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1916,10 +1908,6 @@
       </rPr>
       <t>）煞魂：魂魄中的煞气外溢，形成一道护体真气，极其霸道！（反弹物理伤害）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑三式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2375,6 +2363,18 @@
   </si>
   <si>
     <t>造成7点伤害，如果有幻剑，消耗一把幻剑，额外造成1点伤害2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑三式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心如止水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除所有负面状态，消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3837,10 +3837,10 @@
         <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K5" t="s">
         <v>136</v>
@@ -3849,7 +3849,7 @@
         <v>133</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N5" t="s">
         <v>138</v>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K6" t="s">
         <v>136</v>
@@ -3878,24 +3878,24 @@
         <v>139</v>
       </c>
       <c r="N6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" t="s">
         <v>133</v>
@@ -3904,7 +3904,7 @@
         <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -3918,7 +3918,7 @@
         <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3926,13 +3926,13 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3940,11 +3940,11 @@
       <c r="L9" t="s">
         <v>128</v>
       </c>
-      <c r="M9" t="s">
-        <v>146</v>
+      <c r="M9" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3958,21 +3958,21 @@
         <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4002,10 +4002,10 @@
         <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -4016,29 +4016,29 @@
         <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -4046,7 +4046,7 @@
         <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
         <v>133</v>
@@ -4055,7 +4055,7 @@
         <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -4072,16 +4072,16 @@
         <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -4098,16 +4098,16 @@
         <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L20" t="s">
         <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -4124,16 +4124,16 @@
         <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -4141,105 +4141,105 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D23" t="s">
         <v>481</v>
-      </c>
-      <c r="B23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" t="s">
         <v>471</v>
       </c>
-      <c r="B26" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D26" t="s">
-        <v>473</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N27" t="s">
         <v>214</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="N27" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L29" t="s">
+        <v>454</v>
+      </c>
+      <c r="M29" t="s">
+        <v>503</v>
+      </c>
+      <c r="N29" t="s">
         <v>456</v>
-      </c>
-      <c r="M29" t="s">
-        <v>506</v>
-      </c>
-      <c r="N29" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L30" t="s">
+        <v>455</v>
+      </c>
+      <c r="M30" t="s">
+        <v>510</v>
+      </c>
+      <c r="N30" t="s">
         <v>457</v>
-      </c>
-      <c r="M30" t="s">
-        <v>513</v>
-      </c>
-      <c r="N30" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -4247,30 +4247,30 @@
         <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M31" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -4281,46 +4281,46 @@
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D35" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
         <v>122</v>
@@ -4329,19 +4329,19 @@
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N36" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4349,117 +4349,117 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D37" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L37" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L38" t="s">
         <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>496</v>
+        <v>162</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D39" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D40" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M40" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -4470,33 +4470,33 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D42" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D43" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4504,32 +4504,32 @@
         <v>113</v>
       </c>
       <c r="L44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="N45" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4559,13 +4559,13 @@
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
         <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4590,30 +4590,30 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4622,29 +4622,29 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" t="s">
         <v>439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4655,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" t="s">
         <v>189</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -4672,29 +4672,29 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
         <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -4705,107 +4705,107 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4830,193 +4830,193 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5027,627 +5027,627 @@
     </row>
     <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C164" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C167" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C170" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C173" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C176" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C179" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C182" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C185" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C191" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C194" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C197" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C200" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C203" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C206" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C209" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C212" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C215" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C218" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C221" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C224" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C227" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C230" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C233" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C236" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C239" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C242" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C245" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C248" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C251" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C254" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C257" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C260" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C263" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C266" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C269" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C272" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C275" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C278" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C281" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C284" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C287" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C290" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C293" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C296" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C299" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C302" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C305" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C308" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C311" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C314" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C317" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C320" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C323" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C326" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C329" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C332" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C335" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C338" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C341" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C344" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C347" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C350" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C353" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C356" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C386" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C389" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C392" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C395" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C398" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C401" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C404" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C407" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C410" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C413" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C416" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C419" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C422" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C425" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C428" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C431" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C434" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C437" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C440" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C443" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C446" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C449" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C452" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C455" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C458" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C461" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C464" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C467" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C470" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C473" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C476" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C479" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C482" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C485" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C488" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5658,222 +5658,222 @@
     </row>
     <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C491" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C494" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C497" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C500" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C503" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C506" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C509" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C512" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C515" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C518" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C521" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C524" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C527" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C530" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C533" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C536" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C539" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C542" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C545" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C548" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C551" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C554" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C557" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C560" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C563" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C566" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C572" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C575" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C578" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C581" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C584" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C587" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C590" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C593" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C596" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C599" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C602" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C605" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C608" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C611" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C614" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C617" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C620" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C623" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -5884,7 +5884,7 @@
     </row>
     <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C626" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
